--- a/stock_historical_data/1mo/ADFFOODS.NS.xlsx
+++ b/stock_historical_data/1mo/ADFFOODS.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q166"/>
+  <dimension ref="A1:Q176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>40452</v>
+        <v>40422</v>
       </c>
       <c r="B2" t="n">
-        <v>17.20000076293945</v>
+        <v>13.02769559270928</v>
       </c>
       <c r="C2" t="n">
-        <v>17.79999923706055</v>
+        <v>15.26267693326194</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>11.29953198865906</v>
       </c>
       <c r="E2" t="n">
-        <v>15.8100004196167</v>
-      </c>
-      <c r="F2" t="n">
-        <v>13.23007869720459</v>
-      </c>
+        <v>14.41521167755127</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>2399520</v>
+        <v>5231415</v>
       </c>
       <c r="H2" t="n">
         <v>2010</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>39</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40483</v>
+        <v>40452</v>
       </c>
       <c r="B3" t="n">
-        <v>15.60000038146973</v>
+        <v>17.20000076293945</v>
       </c>
       <c r="C3" t="n">
-        <v>17.8799991607666</v>
+        <v>17.79999923706055</v>
       </c>
       <c r="D3" t="n">
-        <v>11.07999992370605</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>12.92000007629395</v>
+        <v>15.8100004196167</v>
       </c>
       <c r="F3" t="n">
-        <v>10.81167888641357</v>
+        <v>13.23007869720459</v>
       </c>
       <c r="G3" t="n">
-        <v>6678740</v>
+        <v>2399520</v>
       </c>
       <c r="H3" t="n">
         <v>2010</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40513</v>
+        <v>40483</v>
       </c>
       <c r="B4" t="n">
-        <v>13.68000030517578</v>
+        <v>15.60000038146973</v>
       </c>
       <c r="C4" t="n">
-        <v>15.88000011444092</v>
+        <v>17.8799991607666</v>
       </c>
       <c r="D4" t="n">
-        <v>10.60999965667725</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="E4" t="n">
-        <v>13.59000015258789</v>
+        <v>12.92000007629395</v>
       </c>
       <c r="F4" t="n">
-        <v>11.37234687805176</v>
+        <v>10.81167888641357</v>
       </c>
       <c r="G4" t="n">
-        <v>5273635</v>
+        <v>6678740</v>
       </c>
       <c r="H4" t="n">
         <v>2010</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40544</v>
+        <v>40513</v>
       </c>
       <c r="B5" t="n">
-        <v>13.80000019073486</v>
+        <v>13.68000030517578</v>
       </c>
       <c r="C5" t="n">
-        <v>13.98999977111816</v>
+        <v>15.88000011444092</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>10.60999965667725</v>
       </c>
       <c r="E5" t="n">
-        <v>10.80000019073486</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="F5" t="n">
-        <v>9.037626266479492</v>
+        <v>11.37234687805176</v>
       </c>
       <c r="G5" t="n">
-        <v>1429730</v>
+        <v>5273635</v>
       </c>
       <c r="H5" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40575</v>
+        <v>40544</v>
       </c>
       <c r="B6" t="n">
-        <v>12.85000038146973</v>
+        <v>13.80000019073486</v>
       </c>
       <c r="C6" t="n">
-        <v>12.85000038146973</v>
+        <v>13.98999977111816</v>
       </c>
       <c r="D6" t="n">
-        <v>9.800000190734863</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>10.82999992370605</v>
+        <v>10.80000019073486</v>
       </c>
       <c r="F6" t="n">
-        <v>9.06273078918457</v>
+        <v>9.037626266479492</v>
       </c>
       <c r="G6" t="n">
-        <v>586820</v>
+        <v>1429730</v>
       </c>
       <c r="H6" t="n">
         <v>2011</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40603</v>
+        <v>40575</v>
       </c>
       <c r="B7" t="n">
-        <v>11.18000030517578</v>
+        <v>12.85000038146973</v>
       </c>
       <c r="C7" t="n">
-        <v>13.30000019073486</v>
+        <v>12.85000038146973</v>
       </c>
       <c r="D7" t="n">
-        <v>10.46000003814697</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="E7" t="n">
-        <v>11.80000019073486</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="F7" t="n">
-        <v>9.874443054199219</v>
+        <v>9.06273078918457</v>
       </c>
       <c r="G7" t="n">
-        <v>1142340</v>
+        <v>586820</v>
       </c>
       <c r="H7" t="n">
         <v>2011</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40634</v>
+        <v>40603</v>
       </c>
       <c r="B8" t="n">
-        <v>11.77000045776367</v>
+        <v>11.18000030517578</v>
       </c>
       <c r="C8" t="n">
-        <v>14.38000011444092</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="D8" t="n">
-        <v>11.76000022888184</v>
+        <v>10.46000003814697</v>
       </c>
       <c r="E8" t="n">
-        <v>12.76000022888184</v>
+        <v>11.80000019073486</v>
       </c>
       <c r="F8" t="n">
-        <v>10.67778778076172</v>
+        <v>9.874443054199219</v>
       </c>
       <c r="G8" t="n">
-        <v>805630</v>
+        <v>1142340</v>
       </c>
       <c r="H8" t="n">
         <v>2011</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40664</v>
+        <v>40634</v>
       </c>
       <c r="B9" t="n">
-        <v>12.80000019073486</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="C9" t="n">
-        <v>13.97999954223633</v>
+        <v>14.38000011444092</v>
       </c>
       <c r="D9" t="n">
-        <v>10.60000038146973</v>
+        <v>11.76000022888184</v>
       </c>
       <c r="E9" t="n">
-        <v>11.22999954223633</v>
+        <v>12.76000022888184</v>
       </c>
       <c r="F9" t="n">
-        <v>9.397456169128418</v>
+        <v>10.67778778076172</v>
       </c>
       <c r="G9" t="n">
-        <v>372185</v>
+        <v>805630</v>
       </c>
       <c r="H9" t="n">
         <v>2011</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40695</v>
+        <v>40664</v>
       </c>
       <c r="B10" t="n">
-        <v>11.44999980926514</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="C10" t="n">
-        <v>17.28000068664551</v>
+        <v>13.97999954223633</v>
       </c>
       <c r="D10" t="n">
-        <v>10.9399995803833</v>
+        <v>10.60000038146973</v>
       </c>
       <c r="E10" t="n">
-        <v>13.36999988555908</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="F10" t="n">
-        <v>11.18824577331543</v>
+        <v>9.397456169128418</v>
       </c>
       <c r="G10" t="n">
-        <v>20279600</v>
+        <v>372185</v>
       </c>
       <c r="H10" t="n">
         <v>2011</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40725</v>
+        <v>40695</v>
       </c>
       <c r="B11" t="n">
-        <v>13.39999961853027</v>
+        <v>11.44999980926514</v>
       </c>
       <c r="C11" t="n">
-        <v>15.80000019073486</v>
+        <v>17.28000068664551</v>
       </c>
       <c r="D11" t="n">
-        <v>13.11999988555908</v>
+        <v>10.9399995803833</v>
       </c>
       <c r="E11" t="n">
-        <v>14.01000022888184</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="F11" t="n">
-        <v>11.98550033569336</v>
+        <v>11.18824577331543</v>
       </c>
       <c r="G11" t="n">
-        <v>5043530</v>
+        <v>20279600</v>
       </c>
       <c r="H11" t="n">
         <v>2011</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40756</v>
+        <v>40725</v>
       </c>
       <c r="B12" t="n">
-        <v>13.9399995803833</v>
+        <v>13.39999961853027</v>
       </c>
       <c r="C12" t="n">
-        <v>14.22999954223633</v>
+        <v>15.80000019073486</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="E12" t="n">
-        <v>11.06999969482422</v>
+        <v>14.01000022888184</v>
       </c>
       <c r="F12" t="n">
-        <v>9.470341682434082</v>
+        <v>11.98550033569336</v>
       </c>
       <c r="G12" t="n">
-        <v>1402250</v>
+        <v>5043530</v>
       </c>
       <c r="H12" t="n">
         <v>2011</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40787</v>
+        <v>40756</v>
       </c>
       <c r="B13" t="n">
+        <v>13.9399995803833</v>
+      </c>
+      <c r="C13" t="n">
+        <v>14.22999954223633</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" t="n">
         <v>11.06999969482422</v>
       </c>
-      <c r="C13" t="n">
-        <v>14</v>
-      </c>
-      <c r="D13" t="n">
-        <v>10.71000003814697</v>
-      </c>
-      <c r="E13" t="n">
-        <v>11.38000011444092</v>
-      </c>
       <c r="F13" t="n">
-        <v>9.735546112060547</v>
+        <v>9.470341682434082</v>
       </c>
       <c r="G13" t="n">
-        <v>976570</v>
+        <v>1402250</v>
       </c>
       <c r="H13" t="n">
         <v>2011</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40817</v>
+        <v>40787</v>
       </c>
       <c r="B14" t="n">
-        <v>11.39999961853027</v>
+        <v>11.06999969482422</v>
       </c>
       <c r="C14" t="n">
-        <v>12.19999980926514</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
-        <v>10.82999992370605</v>
+        <v>10.71000003814697</v>
       </c>
       <c r="E14" t="n">
-        <v>11.6899995803833</v>
+        <v>11.38000011444092</v>
       </c>
       <c r="F14" t="n">
-        <v>10.00074863433838</v>
+        <v>9.735546112060547</v>
       </c>
       <c r="G14" t="n">
-        <v>349880</v>
+        <v>976570</v>
       </c>
       <c r="H14" t="n">
         <v>2011</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40848</v>
+        <v>40817</v>
       </c>
       <c r="B15" t="n">
-        <v>11.60000038146973</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="C15" t="n">
-        <v>11.80000019073486</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="D15" t="n">
-        <v>8.75</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="E15" t="n">
-        <v>10.63000011444092</v>
+        <v>11.6899995803833</v>
       </c>
       <c r="F15" t="n">
-        <v>9.093924522399902</v>
+        <v>10.00074863433838</v>
       </c>
       <c r="G15" t="n">
-        <v>660390</v>
+        <v>349880</v>
       </c>
       <c r="H15" t="n">
         <v>2011</v>
       </c>
       <c r="I15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,10 +1246,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40878</v>
+        <v>40848</v>
       </c>
       <c r="B16" t="n">
-        <v>10.80000019073486</v>
+        <v>11.60000038146973</v>
       </c>
       <c r="C16" t="n">
-        <v>11.19999980926514</v>
+        <v>11.80000019073486</v>
       </c>
       <c r="D16" t="n">
-        <v>9.170000076293945</v>
+        <v>8.75</v>
       </c>
       <c r="E16" t="n">
-        <v>10.67000007629395</v>
+        <v>10.63000011444092</v>
       </c>
       <c r="F16" t="n">
-        <v>9.128143310546875</v>
+        <v>9.093924522399902</v>
       </c>
       <c r="G16" t="n">
-        <v>964940</v>
+        <v>660390</v>
       </c>
       <c r="H16" t="n">
         <v>2011</v>
       </c>
       <c r="I16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40909</v>
+        <v>40878</v>
       </c>
       <c r="B17" t="n">
-        <v>10.42000007629395</v>
+        <v>10.80000019073486</v>
       </c>
       <c r="C17" t="n">
-        <v>12.39999961853027</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="D17" t="n">
-        <v>10.42000007629395</v>
+        <v>9.170000076293945</v>
       </c>
       <c r="E17" t="n">
-        <v>11.98999977111816</v>
+        <v>10.67000007629395</v>
       </c>
       <c r="F17" t="n">
-        <v>10.25739860534668</v>
+        <v>9.128143310546875</v>
       </c>
       <c r="G17" t="n">
-        <v>1072700</v>
+        <v>964940</v>
       </c>
       <c r="H17" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>40940</v>
+        <v>40909</v>
       </c>
       <c r="B18" t="n">
-        <v>11.89999961853027</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="C18" t="n">
-        <v>13.5</v>
+        <v>12.39999961853027</v>
       </c>
       <c r="D18" t="n">
-        <v>10.60000038146973</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="E18" t="n">
-        <v>11.38000011444092</v>
+        <v>11.98999977111816</v>
       </c>
       <c r="F18" t="n">
-        <v>9.735546112060547</v>
+        <v>10.25739860534668</v>
       </c>
       <c r="G18" t="n">
-        <v>1067170</v>
+        <v>1072700</v>
       </c>
       <c r="H18" t="n">
         <v>2012</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,10 +1405,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>40969</v>
+        <v>40940</v>
       </c>
       <c r="B19" t="n">
-        <v>11.19999980926514</v>
+        <v>11.89999961853027</v>
       </c>
       <c r="C19" t="n">
-        <v>11.39999961853027</v>
+        <v>13.5</v>
       </c>
       <c r="D19" t="n">
-        <v>9.800000190734863</v>
+        <v>10.60000038146973</v>
       </c>
       <c r="E19" t="n">
-        <v>10.02999973297119</v>
+        <v>11.38000011444092</v>
       </c>
       <c r="F19" t="n">
-        <v>8.580624580383301</v>
+        <v>9.735546112060547</v>
       </c>
       <c r="G19" t="n">
-        <v>2435655</v>
+        <v>1067170</v>
       </c>
       <c r="H19" t="n">
         <v>2012</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,45 +1458,45 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>41000</v>
+        <v>40969</v>
       </c>
       <c r="B20" t="n">
-        <v>10.19999980926514</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="C20" t="n">
         <v>11.39999961853027</v>
       </c>
       <c r="D20" t="n">
-        <v>9.039999961853027</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="E20" t="n">
-        <v>11.06999969482422</v>
+        <v>10.02999973297119</v>
       </c>
       <c r="F20" t="n">
-        <v>9.470341682434082</v>
+        <v>8.580624580383301</v>
       </c>
       <c r="G20" t="n">
-        <v>660465</v>
+        <v>2435655</v>
       </c>
       <c r="H20" t="n">
         <v>2012</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1528,36 +1520,36 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>41030</v>
+        <v>41000</v>
       </c>
       <c r="B21" t="n">
-        <v>11</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="C21" t="n">
-        <v>12.5600004196167</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="D21" t="n">
-        <v>8.75</v>
+        <v>9.039999961853027</v>
       </c>
       <c r="E21" t="n">
-        <v>9.430000305175781</v>
+        <v>11.06999969482422</v>
       </c>
       <c r="F21" t="n">
-        <v>8.067329406738281</v>
+        <v>9.470341682434082</v>
       </c>
       <c r="G21" t="n">
-        <v>1857320</v>
+        <v>660465</v>
       </c>
       <c r="H21" t="n">
         <v>2012</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1586,31 +1578,31 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>41061</v>
+        <v>41030</v>
       </c>
       <c r="B22" t="n">
-        <v>9.220000267028809</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>12.5600004196167</v>
       </c>
       <c r="D22" t="n">
-        <v>9.050000190734863</v>
+        <v>8.75</v>
       </c>
       <c r="E22" t="n">
-        <v>9.550000190734863</v>
+        <v>9.430000305175781</v>
       </c>
       <c r="F22" t="n">
-        <v>8.169988632202148</v>
+        <v>8.067329406738281</v>
       </c>
       <c r="G22" t="n">
-        <v>521770</v>
+        <v>1857320</v>
       </c>
       <c r="H22" t="n">
         <v>2012</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,45 +1617,45 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>41091</v>
+        <v>41061</v>
       </c>
       <c r="B23" t="n">
-        <v>9.699999809265137</v>
+        <v>9.220000267028809</v>
       </c>
       <c r="C23" t="n">
-        <v>10.72999954223633</v>
+        <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>9.109999656677246</v>
+        <v>9.050000190734863</v>
       </c>
       <c r="E23" t="n">
-        <v>9.279999732971191</v>
+        <v>9.550000190734863</v>
       </c>
       <c r="F23" t="n">
-        <v>7.939004898071289</v>
+        <v>8.169988632202148</v>
       </c>
       <c r="G23" t="n">
-        <v>634375</v>
+        <v>521770</v>
       </c>
       <c r="H23" t="n">
         <v>2012</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1687,36 +1679,36 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>41122</v>
+        <v>41091</v>
       </c>
       <c r="B24" t="n">
-        <v>9.600000381469727</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="C24" t="n">
-        <v>10.46000003814697</v>
+        <v>10.72999954223633</v>
       </c>
       <c r="D24" t="n">
-        <v>9.170000076293945</v>
+        <v>9.109999656677246</v>
       </c>
       <c r="E24" t="n">
-        <v>9.430000305175781</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="F24" t="n">
-        <v>8.332121849060059</v>
+        <v>7.939004898071289</v>
       </c>
       <c r="G24" t="n">
-        <v>592020</v>
+        <v>634375</v>
       </c>
       <c r="H24" t="n">
         <v>2012</v>
       </c>
       <c r="I24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1745,31 +1737,31 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>41153</v>
+        <v>41122</v>
       </c>
       <c r="B25" t="n">
         <v>9.600000381469727</v>
       </c>
       <c r="C25" t="n">
-        <v>10.34000015258789</v>
+        <v>10.46000003814697</v>
       </c>
       <c r="D25" t="n">
-        <v>9.319999694824219</v>
+        <v>9.170000076293945</v>
       </c>
       <c r="E25" t="n">
-        <v>9.689999580383301</v>
+        <v>9.430000305175781</v>
       </c>
       <c r="F25" t="n">
-        <v>8.561848640441895</v>
+        <v>8.332121849060059</v>
       </c>
       <c r="G25" t="n">
-        <v>314535</v>
+        <v>592020</v>
       </c>
       <c r="H25" t="n">
         <v>2012</v>
       </c>
       <c r="I25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,45 +1776,45 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>41183</v>
+        <v>41153</v>
       </c>
       <c r="B26" t="n">
-        <v>10.03999996185303</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="C26" t="n">
-        <v>12.36999988555908</v>
+        <v>10.34000015258789</v>
       </c>
       <c r="D26" t="n">
-        <v>9.779999732971191</v>
+        <v>9.319999694824219</v>
       </c>
       <c r="E26" t="n">
-        <v>11.27999973297119</v>
+        <v>9.689999580383301</v>
       </c>
       <c r="F26" t="n">
-        <v>9.966734886169434</v>
+        <v>8.561848640441895</v>
       </c>
       <c r="G26" t="n">
-        <v>2097495</v>
+        <v>314535</v>
       </c>
       <c r="H26" t="n">
         <v>2012</v>
       </c>
       <c r="I26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,45 +1829,45 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>41214</v>
+        <v>41183</v>
       </c>
       <c r="B27" t="n">
-        <v>11.30000019073486</v>
+        <v>10.03999996185303</v>
       </c>
       <c r="C27" t="n">
-        <v>14.80000019073486</v>
+        <v>12.36999988555908</v>
       </c>
       <c r="D27" t="n">
-        <v>11.30000019073486</v>
+        <v>9.779999732971191</v>
       </c>
       <c r="E27" t="n">
-        <v>12.57999992370605</v>
+        <v>11.27999973297119</v>
       </c>
       <c r="F27" t="n">
-        <v>11.11538600921631</v>
+        <v>9.966734886169434</v>
       </c>
       <c r="G27" t="n">
-        <v>3361765</v>
+        <v>2097495</v>
       </c>
       <c r="H27" t="n">
         <v>2012</v>
       </c>
       <c r="I27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1904,31 +1896,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>41244</v>
+        <v>41214</v>
       </c>
       <c r="B28" t="n">
-        <v>12.52000045776367</v>
+        <v>11.30000019073486</v>
       </c>
       <c r="C28" t="n">
-        <v>16.70000076293945</v>
+        <v>14.80000019073486</v>
       </c>
       <c r="D28" t="n">
-        <v>12.47999954223633</v>
+        <v>11.30000019073486</v>
       </c>
       <c r="E28" t="n">
-        <v>16.27000045776367</v>
+        <v>12.57999992370605</v>
       </c>
       <c r="F28" t="n">
-        <v>14.37578105926514</v>
+        <v>11.11538600921631</v>
       </c>
       <c r="G28" t="n">
-        <v>4078845</v>
+        <v>3361765</v>
       </c>
       <c r="H28" t="n">
         <v>2012</v>
       </c>
       <c r="I28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1957,31 +1949,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>41275</v>
+        <v>41244</v>
       </c>
       <c r="B29" t="n">
-        <v>16.39999961853027</v>
+        <v>12.52000045776367</v>
       </c>
       <c r="C29" t="n">
-        <v>18.79000091552734</v>
+        <v>16.70000076293945</v>
       </c>
       <c r="D29" t="n">
-        <v>13</v>
+        <v>12.47999954223633</v>
       </c>
       <c r="E29" t="n">
-        <v>14</v>
+        <v>16.27000045776367</v>
       </c>
       <c r="F29" t="n">
-        <v>12.37006092071533</v>
+        <v>14.37578105926514</v>
       </c>
       <c r="G29" t="n">
-        <v>8158580</v>
+        <v>4078845</v>
       </c>
       <c r="H29" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -2010,31 +2002,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41306</v>
+        <v>41275</v>
       </c>
       <c r="B30" t="n">
-        <v>14.1899995803833</v>
+        <v>16.39999961853027</v>
       </c>
       <c r="C30" t="n">
-        <v>14.68000030517578</v>
+        <v>18.79000091552734</v>
       </c>
       <c r="D30" t="n">
-        <v>9.539999961853027</v>
+        <v>13</v>
       </c>
       <c r="E30" t="n">
-        <v>9.920000076293945</v>
+        <v>14</v>
       </c>
       <c r="F30" t="n">
-        <v>8.765071868896484</v>
+        <v>12.37006092071533</v>
       </c>
       <c r="G30" t="n">
-        <v>1503205</v>
+        <v>8158580</v>
       </c>
       <c r="H30" t="n">
         <v>2013</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -2063,31 +2055,31 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41334</v>
+        <v>41306</v>
       </c>
       <c r="B31" t="n">
-        <v>9.909999847412109</v>
+        <v>14.1899995803833</v>
       </c>
       <c r="C31" t="n">
-        <v>10.5600004196167</v>
+        <v>14.68000030517578</v>
       </c>
       <c r="D31" t="n">
-        <v>8.199999809265137</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="E31" t="n">
-        <v>8.960000038146973</v>
+        <v>9.920000076293945</v>
       </c>
       <c r="F31" t="n">
-        <v>7.916839122772217</v>
+        <v>8.765071868896484</v>
       </c>
       <c r="G31" t="n">
-        <v>1259005</v>
+        <v>1503205</v>
       </c>
       <c r="H31" t="n">
         <v>2013</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2102,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -2116,31 +2108,31 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41365</v>
+        <v>41334</v>
       </c>
       <c r="B32" t="n">
-        <v>8.760000228881836</v>
+        <v>9.909999847412109</v>
       </c>
       <c r="C32" t="n">
-        <v>10.89000034332275</v>
+        <v>10.5600004196167</v>
       </c>
       <c r="D32" t="n">
-        <v>8.760000228881836</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="E32" t="n">
-        <v>10.1899995803833</v>
+        <v>8.960000038146973</v>
       </c>
       <c r="F32" t="n">
-        <v>9.003637313842773</v>
+        <v>7.916839122772217</v>
       </c>
       <c r="G32" t="n">
-        <v>604825</v>
+        <v>1259005</v>
       </c>
       <c r="H32" t="n">
         <v>2013</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,10 +2147,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -2169,31 +2161,31 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41395</v>
+        <v>41365</v>
       </c>
       <c r="B33" t="n">
+        <v>8.760000228881836</v>
+      </c>
+      <c r="C33" t="n">
+        <v>10.89000034332275</v>
+      </c>
+      <c r="D33" t="n">
+        <v>8.760000228881836</v>
+      </c>
+      <c r="E33" t="n">
         <v>10.1899995803833</v>
       </c>
-      <c r="C33" t="n">
-        <v>11.19999980926514</v>
-      </c>
-      <c r="D33" t="n">
-        <v>8.399999618530273</v>
-      </c>
-      <c r="E33" t="n">
-        <v>9.039999961853027</v>
-      </c>
       <c r="F33" t="n">
-        <v>7.987525463104248</v>
+        <v>9.003637313842773</v>
       </c>
       <c r="G33" t="n">
-        <v>914930</v>
+        <v>604825</v>
       </c>
       <c r="H33" t="n">
         <v>2013</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2217,36 +2209,36 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41426</v>
+        <v>41395</v>
       </c>
       <c r="B34" t="n">
-        <v>8.859999656677246</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="C34" t="n">
-        <v>10.10999965667725</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="D34" t="n">
-        <v>8.470000267028809</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="E34" t="n">
-        <v>9.520000457763672</v>
+        <v>9.039999961853027</v>
       </c>
       <c r="F34" t="n">
-        <v>8.411643028259277</v>
+        <v>7.987525463104248</v>
       </c>
       <c r="G34" t="n">
-        <v>1160915</v>
+        <v>914930</v>
       </c>
       <c r="H34" t="n">
         <v>2013</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2261,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2270,36 +2262,36 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41456</v>
+        <v>41426</v>
       </c>
       <c r="B35" t="n">
-        <v>9.600000381469727</v>
+        <v>8.859999656677246</v>
       </c>
       <c r="C35" t="n">
-        <v>10.18000030517578</v>
+        <v>10.10999965667725</v>
       </c>
       <c r="D35" t="n">
-        <v>8.680000305175781</v>
+        <v>8.470000267028809</v>
       </c>
       <c r="E35" t="n">
-        <v>8.789999961853027</v>
+        <v>9.520000457763672</v>
       </c>
       <c r="F35" t="n">
-        <v>7.76663064956665</v>
+        <v>8.411643028259277</v>
       </c>
       <c r="G35" t="n">
-        <v>401310</v>
+        <v>1160915</v>
       </c>
       <c r="H35" t="n">
         <v>2013</v>
       </c>
       <c r="I35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2314,45 +2306,45 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41487</v>
+        <v>41456</v>
       </c>
       <c r="B36" t="n">
-        <v>8.869999885559082</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="C36" t="n">
-        <v>9.539999961853027</v>
+        <v>10.18000030517578</v>
       </c>
       <c r="D36" t="n">
-        <v>7.409999847412109</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="E36" t="n">
-        <v>7.909999847412109</v>
+        <v>8.789999961853027</v>
       </c>
       <c r="F36" t="n">
-        <v>7.214539527893066</v>
+        <v>7.76663064956665</v>
       </c>
       <c r="G36" t="n">
-        <v>719975</v>
+        <v>401310</v>
       </c>
       <c r="H36" t="n">
         <v>2013</v>
       </c>
       <c r="I36" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2367,45 +2359,45 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41518</v>
+        <v>41487</v>
       </c>
       <c r="B37" t="n">
-        <v>7.929999828338623</v>
+        <v>8.869999885559082</v>
       </c>
       <c r="C37" t="n">
-        <v>9.739999771118164</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="D37" t="n">
-        <v>7.710000038146973</v>
+        <v>7.409999847412109</v>
       </c>
       <c r="E37" t="n">
-        <v>8.489999771118164</v>
+        <v>7.909999847412109</v>
       </c>
       <c r="F37" t="n">
-        <v>7.743544101715088</v>
+        <v>7.214539527893066</v>
       </c>
       <c r="G37" t="n">
-        <v>516520</v>
+        <v>719975</v>
       </c>
       <c r="H37" t="n">
         <v>2013</v>
       </c>
       <c r="I37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2420,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -2434,31 +2426,31 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>41548</v>
+        <v>41518</v>
       </c>
       <c r="B38" t="n">
-        <v>8.579999923706055</v>
+        <v>7.929999828338623</v>
       </c>
       <c r="C38" t="n">
-        <v>11.15999984741211</v>
+        <v>9.739999771118164</v>
       </c>
       <c r="D38" t="n">
-        <v>8.579999923706055</v>
+        <v>7.710000038146973</v>
       </c>
       <c r="E38" t="n">
-        <v>9.819999694824219</v>
+        <v>8.489999771118164</v>
       </c>
       <c r="F38" t="n">
-        <v>8.956608772277832</v>
+        <v>7.743544101715088</v>
       </c>
       <c r="G38" t="n">
-        <v>2570875</v>
+        <v>516520</v>
       </c>
       <c r="H38" t="n">
         <v>2013</v>
       </c>
       <c r="I38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2473,10 +2465,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -2487,31 +2479,31 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>41579</v>
+        <v>41548</v>
       </c>
       <c r="B39" t="n">
-        <v>9.840000152587891</v>
+        <v>8.579999923706055</v>
       </c>
       <c r="C39" t="n">
-        <v>10.80000019073486</v>
+        <v>11.15999984741211</v>
       </c>
       <c r="D39" t="n">
-        <v>8.850000381469727</v>
+        <v>8.579999923706055</v>
       </c>
       <c r="E39" t="n">
-        <v>9.319999694824219</v>
+        <v>9.819999694824219</v>
       </c>
       <c r="F39" t="n">
-        <v>8.500569343566895</v>
+        <v>8.956608772277832</v>
       </c>
       <c r="G39" t="n">
-        <v>998675</v>
+        <v>2570875</v>
       </c>
       <c r="H39" t="n">
         <v>2013</v>
       </c>
       <c r="I39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2526,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -2540,31 +2532,31 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>41609</v>
+        <v>41579</v>
       </c>
       <c r="B40" t="n">
-        <v>9.359999656677246</v>
+        <v>9.840000152587891</v>
       </c>
       <c r="C40" t="n">
-        <v>10.89000034332275</v>
+        <v>10.80000019073486</v>
       </c>
       <c r="D40" t="n">
-        <v>8.899999618530273</v>
+        <v>8.850000381469727</v>
       </c>
       <c r="E40" t="n">
-        <v>10.27000045776367</v>
+        <v>9.319999694824219</v>
       </c>
       <c r="F40" t="n">
-        <v>9.367044448852539</v>
+        <v>8.500569343566895</v>
       </c>
       <c r="G40" t="n">
-        <v>4052565</v>
+        <v>998675</v>
       </c>
       <c r="H40" t="n">
         <v>2013</v>
       </c>
       <c r="I40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2579,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2588,36 +2580,36 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>41640</v>
+        <v>41609</v>
       </c>
       <c r="B41" t="n">
-        <v>10.5</v>
+        <v>9.359999656677246</v>
       </c>
       <c r="C41" t="n">
-        <v>10.77999973297119</v>
+        <v>10.89000034332275</v>
       </c>
       <c r="D41" t="n">
-        <v>8.619999885559082</v>
+        <v>8.899999618530273</v>
       </c>
       <c r="E41" t="n">
-        <v>9.130000114440918</v>
+        <v>10.27000045776367</v>
       </c>
       <c r="F41" t="n">
-        <v>8.327275276184082</v>
+        <v>9.367044448852539</v>
       </c>
       <c r="G41" t="n">
-        <v>1121100</v>
+        <v>4052565</v>
       </c>
       <c r="H41" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2632,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2641,36 +2633,36 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>41671</v>
+        <v>41640</v>
       </c>
       <c r="B42" t="n">
-        <v>9.399999618530273</v>
+        <v>10.5</v>
       </c>
       <c r="C42" t="n">
-        <v>9.5</v>
+        <v>10.77999973297119</v>
       </c>
       <c r="D42" t="n">
-        <v>8.199999809265137</v>
+        <v>8.619999885559082</v>
       </c>
       <c r="E42" t="n">
-        <v>8.329999923706055</v>
+        <v>9.130000114440918</v>
       </c>
       <c r="F42" t="n">
-        <v>7.597612857818604</v>
+        <v>8.327275276184082</v>
       </c>
       <c r="G42" t="n">
-        <v>652985</v>
+        <v>1121100</v>
       </c>
       <c r="H42" t="n">
         <v>2014</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2685,45 +2677,45 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41699</v>
+        <v>41671</v>
       </c>
       <c r="B43" t="n">
-        <v>8.310000419616699</v>
+        <v>9.399999618530273</v>
       </c>
       <c r="C43" t="n">
-        <v>9.180000305175781</v>
+        <v>9.5</v>
       </c>
       <c r="D43" t="n">
         <v>8.199999809265137</v>
       </c>
       <c r="E43" t="n">
-        <v>8.970000267028809</v>
+        <v>8.329999923706055</v>
       </c>
       <c r="F43" t="n">
-        <v>8.181342124938965</v>
+        <v>7.597612857818604</v>
       </c>
       <c r="G43" t="n">
-        <v>822250</v>
+        <v>652985</v>
       </c>
       <c r="H43" t="n">
         <v>2014</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2738,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O43" t="n">
         <v>2</v>
@@ -2747,36 +2739,36 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>41730</v>
+        <v>41699</v>
       </c>
       <c r="B44" t="n">
-        <v>8.960000038146973</v>
+        <v>8.310000419616699</v>
       </c>
       <c r="C44" t="n">
-        <v>9.920000076293945</v>
+        <v>9.180000305175781</v>
       </c>
       <c r="D44" t="n">
-        <v>8.649999618530273</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="E44" t="n">
-        <v>8.800000190734863</v>
+        <v>8.970000267028809</v>
       </c>
       <c r="F44" t="n">
-        <v>8.026289939880371</v>
+        <v>8.181342124938965</v>
       </c>
       <c r="G44" t="n">
-        <v>904665</v>
+        <v>822250</v>
       </c>
       <c r="H44" t="n">
         <v>2014</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2791,10 +2783,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -2805,31 +2797,31 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>41760</v>
+        <v>41730</v>
       </c>
       <c r="B45" t="n">
+        <v>8.960000038146973</v>
+      </c>
+      <c r="C45" t="n">
+        <v>9.920000076293945</v>
+      </c>
+      <c r="D45" t="n">
+        <v>8.649999618530273</v>
+      </c>
+      <c r="E45" t="n">
         <v>8.800000190734863</v>
       </c>
-      <c r="C45" t="n">
-        <v>11.60000038146973</v>
-      </c>
-      <c r="D45" t="n">
-        <v>8.609999656677246</v>
-      </c>
-      <c r="E45" t="n">
-        <v>10.30000019073486</v>
-      </c>
       <c r="F45" t="n">
-        <v>9.394406318664551</v>
+        <v>8.026289939880371</v>
       </c>
       <c r="G45" t="n">
-        <v>1938690</v>
+        <v>904665</v>
       </c>
       <c r="H45" t="n">
         <v>2014</v>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2844,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -2858,31 +2850,31 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>41791</v>
+        <v>41760</v>
       </c>
       <c r="B46" t="n">
-        <v>10.78999996185303</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="C46" t="n">
-        <v>13.57999992370605</v>
+        <v>11.60000038146973</v>
       </c>
       <c r="D46" t="n">
-        <v>9.529999732971191</v>
+        <v>8.609999656677246</v>
       </c>
       <c r="E46" t="n">
-        <v>12.07999992370605</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="F46" t="n">
-        <v>11.01790618896484</v>
+        <v>9.394406318664551</v>
       </c>
       <c r="G46" t="n">
-        <v>72122340</v>
+        <v>1938690</v>
       </c>
       <c r="H46" t="n">
         <v>2014</v>
       </c>
       <c r="I46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2897,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -2906,36 +2898,36 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>41821</v>
+        <v>41791</v>
       </c>
       <c r="B47" t="n">
-        <v>12.19999980926514</v>
+        <v>10.78999996185303</v>
       </c>
       <c r="C47" t="n">
-        <v>14.38000011444092</v>
+        <v>13.57999992370605</v>
       </c>
       <c r="D47" t="n">
-        <v>11</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="E47" t="n">
-        <v>11.10999965667725</v>
+        <v>12.07999992370605</v>
       </c>
       <c r="F47" t="n">
-        <v>10.13318824768066</v>
+        <v>11.01790618896484</v>
       </c>
       <c r="G47" t="n">
-        <v>18424970</v>
+        <v>72122340</v>
       </c>
       <c r="H47" t="n">
         <v>2014</v>
       </c>
       <c r="I47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2950,13 +2942,13 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -2964,31 +2956,31 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>41852</v>
+        <v>41821</v>
       </c>
       <c r="B48" t="n">
+        <v>12.19999980926514</v>
+      </c>
+      <c r="C48" t="n">
+        <v>14.38000011444092</v>
+      </c>
+      <c r="D48" t="n">
         <v>11</v>
       </c>
-      <c r="C48" t="n">
-        <v>12.44999980926514</v>
-      </c>
-      <c r="D48" t="n">
-        <v>10.80000019073486</v>
-      </c>
       <c r="E48" t="n">
-        <v>12.22999954223633</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="F48" t="n">
-        <v>11.15471839904785</v>
+        <v>10.13318824768066</v>
       </c>
       <c r="G48" t="n">
-        <v>6116315</v>
+        <v>18424970</v>
       </c>
       <c r="H48" t="n">
         <v>2014</v>
       </c>
       <c r="I48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3003,45 +2995,45 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>41883</v>
+        <v>41852</v>
       </c>
       <c r="B49" t="n">
-        <v>12.85999965667725</v>
+        <v>11</v>
       </c>
       <c r="C49" t="n">
-        <v>17.20000076293945</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="D49" t="n">
-        <v>12.53999996185303</v>
+        <v>10.80000019073486</v>
       </c>
       <c r="E49" t="n">
-        <v>13.97000026702881</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="F49" t="n">
-        <v>12.74173545837402</v>
+        <v>11.15471839904785</v>
       </c>
       <c r="G49" t="n">
-        <v>39493700</v>
+        <v>6116315</v>
       </c>
       <c r="H49" t="n">
         <v>2014</v>
       </c>
       <c r="I49" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -3056,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -3070,31 +3062,31 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>41913</v>
+        <v>41883</v>
       </c>
       <c r="B50" t="n">
-        <v>14.02000045776367</v>
+        <v>12.85999965667725</v>
       </c>
       <c r="C50" t="n">
-        <v>14.39999961853027</v>
+        <v>17.20000076293945</v>
       </c>
       <c r="D50" t="n">
-        <v>12.60000038146973</v>
+        <v>12.53999996185303</v>
       </c>
       <c r="E50" t="n">
-        <v>14.0600004196167</v>
+        <v>13.97000026702881</v>
       </c>
       <c r="F50" t="n">
-        <v>13.09999847412109</v>
+        <v>12.74173545837402</v>
       </c>
       <c r="G50" t="n">
-        <v>6762945</v>
+        <v>39493700</v>
       </c>
       <c r="H50" t="n">
         <v>2014</v>
       </c>
       <c r="I50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -3109,10 +3101,10 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
@@ -3123,31 +3115,31 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>41944</v>
+        <v>41913</v>
       </c>
       <c r="B51" t="n">
-        <v>14.1899995803833</v>
+        <v>14.02000045776367</v>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>14.39999961853027</v>
       </c>
       <c r="D51" t="n">
-        <v>11.40999984741211</v>
+        <v>12.60000038146973</v>
       </c>
       <c r="E51" t="n">
-        <v>12.34000015258789</v>
+        <v>14.0600004196167</v>
       </c>
       <c r="F51" t="n">
-        <v>11.49743843078613</v>
+        <v>13.09999847412109</v>
       </c>
       <c r="G51" t="n">
-        <v>21787010</v>
+        <v>6762945</v>
       </c>
       <c r="H51" t="n">
         <v>2014</v>
       </c>
       <c r="I51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3162,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -3176,31 +3168,31 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>41974</v>
+        <v>41944</v>
       </c>
       <c r="B52" t="n">
-        <v>12.35000038146973</v>
+        <v>14.1899995803833</v>
       </c>
       <c r="C52" t="n">
-        <v>14.60000038146973</v>
+        <v>15</v>
       </c>
       <c r="D52" t="n">
-        <v>11.85999965667725</v>
+        <v>11.40999984741211</v>
       </c>
       <c r="E52" t="n">
-        <v>14</v>
+        <v>12.34000015258789</v>
       </c>
       <c r="F52" t="n">
-        <v>13.04409408569336</v>
+        <v>11.49743843078613</v>
       </c>
       <c r="G52" t="n">
-        <v>17249450</v>
+        <v>21787010</v>
       </c>
       <c r="H52" t="n">
         <v>2014</v>
       </c>
       <c r="I52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -3215,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -3229,31 +3221,31 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>42005</v>
+        <v>41974</v>
       </c>
       <c r="B53" t="n">
-        <v>14.11999988555908</v>
+        <v>12.35000038146973</v>
       </c>
       <c r="C53" t="n">
-        <v>15.30000019073486</v>
+        <v>14.60000038146973</v>
       </c>
       <c r="D53" t="n">
-        <v>13.38000011444092</v>
+        <v>11.85999965667725</v>
       </c>
       <c r="E53" t="n">
-        <v>14.09000015258789</v>
+        <v>14</v>
       </c>
       <c r="F53" t="n">
-        <v>13.12794971466064</v>
+        <v>13.04409408569336</v>
       </c>
       <c r="G53" t="n">
-        <v>9736485</v>
+        <v>17249450</v>
       </c>
       <c r="H53" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3268,98 +3260,98 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>42036</v>
+        <v>42005</v>
       </c>
       <c r="B54" t="n">
-        <v>13.81999969482422</v>
+        <v>14.11999988555908</v>
       </c>
       <c r="C54" t="n">
-        <v>14.68000030517578</v>
+        <v>15.30000019073486</v>
       </c>
       <c r="D54" t="n">
-        <v>11.5</v>
+        <v>13.38000011444092</v>
       </c>
       <c r="E54" t="n">
-        <v>13.14999961853027</v>
+        <v>14.09000015258789</v>
       </c>
       <c r="F54" t="n">
-        <v>12.25213146209717</v>
+        <v>13.12794971466064</v>
       </c>
       <c r="G54" t="n">
-        <v>11297965</v>
+        <v>9736485</v>
       </c>
       <c r="H54" t="n">
         <v>2015</v>
       </c>
       <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
         <v>2</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>5</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>42064</v>
+        <v>42036</v>
       </c>
       <c r="B55" t="n">
-        <v>13.0600004196167</v>
+        <v>13.81999969482422</v>
       </c>
       <c r="C55" t="n">
-        <v>13.31999969482422</v>
+        <v>14.68000030517578</v>
       </c>
       <c r="D55" t="n">
-        <v>10.35999965667725</v>
+        <v>11.5</v>
       </c>
       <c r="E55" t="n">
-        <v>11.78999996185303</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="F55" t="n">
-        <v>10.98499202728271</v>
+        <v>12.25213146209717</v>
       </c>
       <c r="G55" t="n">
-        <v>5348755</v>
+        <v>11297965</v>
       </c>
       <c r="H55" t="n">
         <v>2015</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3374,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -3388,31 +3380,31 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>42095</v>
+        <v>42064</v>
       </c>
       <c r="B56" t="n">
-        <v>12.10000038146973</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="C56" t="n">
-        <v>15.07999992370605</v>
+        <v>13.31999969482422</v>
       </c>
       <c r="D56" t="n">
-        <v>11.72999954223633</v>
+        <v>10.35999965667725</v>
       </c>
       <c r="E56" t="n">
-        <v>13</v>
+        <v>11.78999996185303</v>
       </c>
       <c r="F56" t="n">
-        <v>12.1123743057251</v>
+        <v>10.98499202728271</v>
       </c>
       <c r="G56" t="n">
-        <v>10601960</v>
+        <v>5348755</v>
       </c>
       <c r="H56" t="n">
         <v>2015</v>
       </c>
       <c r="I56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3427,10 +3419,10 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -3441,31 +3433,31 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>42125</v>
+        <v>42095</v>
       </c>
       <c r="B57" t="n">
+        <v>12.10000038146973</v>
+      </c>
+      <c r="C57" t="n">
+        <v>15.07999992370605</v>
+      </c>
+      <c r="D57" t="n">
+        <v>11.72999954223633</v>
+      </c>
+      <c r="E57" t="n">
         <v>13</v>
       </c>
-      <c r="C57" t="n">
-        <v>14.75</v>
-      </c>
-      <c r="D57" t="n">
-        <v>12.39999961853027</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13.82999992370605</v>
-      </c>
       <c r="F57" t="n">
-        <v>12.88570308685303</v>
+        <v>12.1123743057251</v>
       </c>
       <c r="G57" t="n">
-        <v>7904825</v>
+        <v>10601960</v>
       </c>
       <c r="H57" t="n">
         <v>2015</v>
       </c>
       <c r="I57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3480,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -3489,36 +3481,36 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>42156</v>
+        <v>42125</v>
       </c>
       <c r="B58" t="n">
-        <v>13.80000019073486</v>
+        <v>13</v>
       </c>
       <c r="C58" t="n">
-        <v>14.36999988555908</v>
+        <v>14.75</v>
       </c>
       <c r="D58" t="n">
         <v>12.39999961853027</v>
       </c>
       <c r="E58" t="n">
-        <v>12.85000038146973</v>
+        <v>13.82999992370605</v>
       </c>
       <c r="F58" t="n">
-        <v>11.97261524200439</v>
+        <v>12.88570308685303</v>
       </c>
       <c r="G58" t="n">
-        <v>2597745</v>
+        <v>7904825</v>
       </c>
       <c r="H58" t="n">
         <v>2015</v>
       </c>
       <c r="I58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -3533,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -3542,36 +3534,36 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>42186</v>
+        <v>42156</v>
       </c>
       <c r="B59" t="n">
-        <v>12.89000034332275</v>
+        <v>13.80000019073486</v>
       </c>
       <c r="C59" t="n">
-        <v>17</v>
+        <v>14.36999988555908</v>
       </c>
       <c r="D59" t="n">
-        <v>12.61999988555908</v>
+        <v>12.39999961853027</v>
       </c>
       <c r="E59" t="n">
-        <v>16.5</v>
+        <v>12.85000038146973</v>
       </c>
       <c r="F59" t="n">
-        <v>15.3733959197998</v>
+        <v>11.97261524200439</v>
       </c>
       <c r="G59" t="n">
-        <v>11968125</v>
+        <v>2597745</v>
       </c>
       <c r="H59" t="n">
         <v>2015</v>
       </c>
       <c r="I59" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -3586,45 +3578,45 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>42217</v>
+        <v>42186</v>
       </c>
       <c r="B60" t="n">
-        <v>16.56999969482422</v>
+        <v>12.89000034332275</v>
       </c>
       <c r="C60" t="n">
-        <v>17.88999938964844</v>
+        <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>13</v>
+        <v>12.61999988555908</v>
       </c>
       <c r="E60" t="n">
-        <v>14.90999984741211</v>
+        <v>16.5</v>
       </c>
       <c r="F60" t="n">
-        <v>13.89196014404297</v>
+        <v>15.3733959197998</v>
       </c>
       <c r="G60" t="n">
-        <v>9403140</v>
+        <v>11968125</v>
       </c>
       <c r="H60" t="n">
         <v>2015</v>
       </c>
       <c r="I60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -3639,45 +3631,45 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>42248</v>
+        <v>42217</v>
       </c>
       <c r="B61" t="n">
-        <v>14.80000019073486</v>
+        <v>16.56999969482422</v>
       </c>
       <c r="C61" t="n">
-        <v>19.77000045776367</v>
+        <v>17.88999938964844</v>
       </c>
       <c r="D61" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E61" t="n">
-        <v>18.64999961853027</v>
+        <v>14.90999984741211</v>
       </c>
       <c r="F61" t="n">
-        <v>17.37659645080566</v>
+        <v>13.89196014404297</v>
       </c>
       <c r="G61" t="n">
-        <v>11081820</v>
+        <v>9403140</v>
       </c>
       <c r="H61" t="n">
         <v>2015</v>
       </c>
       <c r="I61" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3692,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -3706,31 +3698,31 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42278</v>
+        <v>42248</v>
       </c>
       <c r="B62" t="n">
-        <v>18.95999908447266</v>
+        <v>14.80000019073486</v>
       </c>
       <c r="C62" t="n">
-        <v>20.79000091552734</v>
+        <v>19.77000045776367</v>
       </c>
       <c r="D62" t="n">
-        <v>16.63999938964844</v>
+        <v>14</v>
       </c>
       <c r="E62" t="n">
-        <v>17.90999984741211</v>
+        <v>18.64999961853027</v>
       </c>
       <c r="F62" t="n">
-        <v>17.00217056274414</v>
+        <v>17.37659645080566</v>
       </c>
       <c r="G62" t="n">
-        <v>17083290</v>
+        <v>11081820</v>
       </c>
       <c r="H62" t="n">
         <v>2015</v>
       </c>
       <c r="I62" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -3745,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -3759,31 +3751,31 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="B63" t="n">
-        <v>17.79999923706055</v>
+        <v>18.95999908447266</v>
       </c>
       <c r="C63" t="n">
-        <v>19.45999908447266</v>
+        <v>20.79000091552734</v>
       </c>
       <c r="D63" t="n">
-        <v>17.03000068664551</v>
+        <v>16.63999938964844</v>
       </c>
       <c r="E63" t="n">
-        <v>19.17000007629395</v>
+        <v>17.90999984741211</v>
       </c>
       <c r="F63" t="n">
-        <v>18.19830703735352</v>
+        <v>17.00217056274414</v>
       </c>
       <c r="G63" t="n">
-        <v>12254775</v>
+        <v>17083290</v>
       </c>
       <c r="H63" t="n">
         <v>2015</v>
       </c>
       <c r="I63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -3798,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -3812,31 +3804,31 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="B64" t="n">
-        <v>19.27000045776367</v>
+        <v>17.79999923706055</v>
       </c>
       <c r="C64" t="n">
-        <v>20.78000068664551</v>
+        <v>19.45999908447266</v>
       </c>
       <c r="D64" t="n">
-        <v>17.06999969482422</v>
+        <v>17.03000068664551</v>
       </c>
       <c r="E64" t="n">
-        <v>18.6200008392334</v>
+        <v>19.17000007629395</v>
       </c>
       <c r="F64" t="n">
-        <v>17.67618751525879</v>
+        <v>18.19830703735352</v>
       </c>
       <c r="G64" t="n">
-        <v>16648475</v>
+        <v>12254775</v>
       </c>
       <c r="H64" t="n">
         <v>2015</v>
       </c>
       <c r="I64" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -3851,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -3865,31 +3857,31 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42370</v>
+        <v>42339</v>
       </c>
       <c r="B65" t="n">
-        <v>18.69000053405762</v>
+        <v>19.27000045776367</v>
       </c>
       <c r="C65" t="n">
-        <v>19.45000076293945</v>
+        <v>20.78000068664551</v>
       </c>
       <c r="D65" t="n">
-        <v>15.44999980926514</v>
+        <v>17.06999969482422</v>
       </c>
       <c r="E65" t="n">
-        <v>17.8799991607666</v>
+        <v>18.6200008392334</v>
       </c>
       <c r="F65" t="n">
-        <v>16.97369384765625</v>
+        <v>17.67618751525879</v>
       </c>
       <c r="G65" t="n">
-        <v>5951045</v>
+        <v>16648475</v>
       </c>
       <c r="H65" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -3904,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -3918,31 +3910,31 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42401</v>
+        <v>42370</v>
       </c>
       <c r="B66" t="n">
-        <v>18.07999992370605</v>
+        <v>18.69000053405762</v>
       </c>
       <c r="C66" t="n">
-        <v>19.07999992370605</v>
+        <v>19.45000076293945</v>
       </c>
       <c r="D66" t="n">
-        <v>12.5</v>
+        <v>15.44999980926514</v>
       </c>
       <c r="E66" t="n">
-        <v>13.5600004196167</v>
+        <v>17.8799991607666</v>
       </c>
       <c r="F66" t="n">
-        <v>12.87266731262207</v>
+        <v>16.97369384765625</v>
       </c>
       <c r="G66" t="n">
-        <v>3937125</v>
+        <v>5951045</v>
       </c>
       <c r="H66" t="n">
         <v>2016</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
@@ -3957,45 +3949,45 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42430</v>
+        <v>42401</v>
       </c>
       <c r="B67" t="n">
-        <v>13.67000007629395</v>
+        <v>18.07999992370605</v>
       </c>
       <c r="C67" t="n">
-        <v>18.20000076293945</v>
+        <v>19.07999992370605</v>
       </c>
       <c r="D67" t="n">
-        <v>13.40999984741211</v>
+        <v>12.5</v>
       </c>
       <c r="E67" t="n">
-        <v>16.79999923706055</v>
+        <v>13.5600004196167</v>
       </c>
       <c r="F67" t="n">
-        <v>15.94843673706055</v>
+        <v>12.87266731262207</v>
       </c>
       <c r="G67" t="n">
-        <v>4611025</v>
+        <v>3937125</v>
       </c>
       <c r="H67" t="n">
         <v>2016</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -4010,45 +4002,45 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42461</v>
+        <v>42430</v>
       </c>
       <c r="B68" t="n">
-        <v>16.90999984741211</v>
+        <v>13.67000007629395</v>
       </c>
       <c r="C68" t="n">
-        <v>18.63999938964844</v>
+        <v>18.20000076293945</v>
       </c>
       <c r="D68" t="n">
-        <v>15.51000022888184</v>
+        <v>13.40999984741211</v>
       </c>
       <c r="E68" t="n">
-        <v>17.70000076293945</v>
+        <v>16.79999923706055</v>
       </c>
       <c r="F68" t="n">
-        <v>16.80281639099121</v>
+        <v>15.94843673706055</v>
       </c>
       <c r="G68" t="n">
-        <v>5161200</v>
+        <v>4611025</v>
       </c>
       <c r="H68" t="n">
         <v>2016</v>
       </c>
       <c r="I68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -4063,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -4077,31 +4069,31 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42491</v>
+        <v>42461</v>
       </c>
       <c r="B69" t="n">
+        <v>16.90999984741211</v>
+      </c>
+      <c r="C69" t="n">
+        <v>18.63999938964844</v>
+      </c>
+      <c r="D69" t="n">
+        <v>15.51000022888184</v>
+      </c>
+      <c r="E69" t="n">
         <v>17.70000076293945</v>
       </c>
-      <c r="C69" t="n">
-        <v>19.79999923706055</v>
-      </c>
-      <c r="D69" t="n">
-        <v>16.97999954223633</v>
-      </c>
-      <c r="E69" t="n">
-        <v>17.05999946594238</v>
-      </c>
       <c r="F69" t="n">
-        <v>16.19525909423828</v>
+        <v>16.80281639099121</v>
       </c>
       <c r="G69" t="n">
-        <v>12089120</v>
+        <v>5161200</v>
       </c>
       <c r="H69" t="n">
         <v>2016</v>
       </c>
       <c r="I69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -4116,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -4130,31 +4122,31 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42522</v>
+        <v>42491</v>
       </c>
       <c r="B70" t="n">
-        <v>17.36000061035156</v>
+        <v>17.70000076293945</v>
       </c>
       <c r="C70" t="n">
-        <v>19.34000015258789</v>
+        <v>19.79999923706055</v>
       </c>
       <c r="D70" t="n">
-        <v>16.30999946594238</v>
+        <v>16.97999954223633</v>
       </c>
       <c r="E70" t="n">
-        <v>18.21999931335449</v>
+        <v>17.05999946594238</v>
       </c>
       <c r="F70" t="n">
-        <v>17.29645729064941</v>
+        <v>16.19525909423828</v>
       </c>
       <c r="G70" t="n">
-        <v>10700190</v>
+        <v>12089120</v>
       </c>
       <c r="H70" t="n">
         <v>2016</v>
       </c>
       <c r="I70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -4169,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -4178,36 +4170,36 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42552</v>
+        <v>42522</v>
       </c>
       <c r="B71" t="n">
-        <v>18.20999908447266</v>
+        <v>17.36000061035156</v>
       </c>
       <c r="C71" t="n">
-        <v>24.70999908447266</v>
+        <v>19.34000015258789</v>
       </c>
       <c r="D71" t="n">
-        <v>17.65999984741211</v>
+        <v>16.30999946594238</v>
       </c>
       <c r="E71" t="n">
-        <v>23.89999961853027</v>
+        <v>18.21999931335449</v>
       </c>
       <c r="F71" t="n">
-        <v>22.68855094909668</v>
+        <v>17.29645729064941</v>
       </c>
       <c r="G71" t="n">
-        <v>39590020</v>
+        <v>10700190</v>
       </c>
       <c r="H71" t="n">
         <v>2016</v>
       </c>
       <c r="I71" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -4222,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -4231,36 +4223,36 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42583</v>
+        <v>42552</v>
       </c>
       <c r="B72" t="n">
-        <v>23.94000053405762</v>
+        <v>18.20999908447266</v>
       </c>
       <c r="C72" t="n">
-        <v>27.60000038146973</v>
+        <v>24.70999908447266</v>
       </c>
       <c r="D72" t="n">
-        <v>21.3799991607666</v>
+        <v>17.65999984741211</v>
       </c>
       <c r="E72" t="n">
-        <v>25.38999938964844</v>
+        <v>23.89999961853027</v>
       </c>
       <c r="F72" t="n">
-        <v>24.10302734375</v>
+        <v>22.68855094909668</v>
       </c>
       <c r="G72" t="n">
-        <v>24183530</v>
+        <v>39590020</v>
       </c>
       <c r="H72" t="n">
         <v>2016</v>
       </c>
       <c r="I72" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -4275,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -4289,31 +4281,31 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42614</v>
+        <v>42583</v>
       </c>
       <c r="B73" t="n">
-        <v>25.52000045776367</v>
+        <v>23.94000053405762</v>
       </c>
       <c r="C73" t="n">
-        <v>27.78000068664551</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="D73" t="n">
-        <v>23.42000007629395</v>
+        <v>21.3799991607666</v>
       </c>
       <c r="E73" t="n">
-        <v>25.03000068664551</v>
+        <v>25.38999938964844</v>
       </c>
       <c r="F73" t="n">
-        <v>23.76127433776855</v>
+        <v>24.10302734375</v>
       </c>
       <c r="G73" t="n">
-        <v>15820650</v>
+        <v>24183530</v>
       </c>
       <c r="H73" t="n">
         <v>2016</v>
       </c>
       <c r="I73" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -4328,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -4342,31 +4334,31 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42644</v>
+        <v>42614</v>
       </c>
       <c r="B74" t="n">
-        <v>25.46999931335449</v>
+        <v>25.52000045776367</v>
       </c>
       <c r="C74" t="n">
-        <v>37.40000152587891</v>
+        <v>27.78000068664551</v>
       </c>
       <c r="D74" t="n">
-        <v>24.70999908447266</v>
+        <v>23.42000007629395</v>
       </c>
       <c r="E74" t="n">
-        <v>34.86999893188477</v>
+        <v>25.03000068664551</v>
       </c>
       <c r="F74" t="n">
-        <v>33.10249710083008</v>
+        <v>23.76127433776855</v>
       </c>
       <c r="G74" t="n">
-        <v>34892445</v>
+        <v>15820650</v>
       </c>
       <c r="H74" t="n">
         <v>2016</v>
       </c>
       <c r="I74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -4381,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -4395,31 +4387,31 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42675</v>
+        <v>42644</v>
       </c>
       <c r="B75" t="n">
-        <v>36.79000091552734</v>
+        <v>25.46999931335449</v>
       </c>
       <c r="C75" t="n">
-        <v>38</v>
+        <v>37.40000152587891</v>
       </c>
       <c r="D75" t="n">
-        <v>25.70999908447266</v>
+        <v>24.70999908447266</v>
       </c>
       <c r="E75" t="n">
-        <v>30.86000061035156</v>
+        <v>34.86999893188477</v>
       </c>
       <c r="F75" t="n">
-        <v>29.29576301574707</v>
+        <v>33.10249710083008</v>
       </c>
       <c r="G75" t="n">
-        <v>22716965</v>
+        <v>34892445</v>
       </c>
       <c r="H75" t="n">
         <v>2016</v>
       </c>
       <c r="I75" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -4434,10 +4426,10 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -4448,31 +4440,31 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42705</v>
+        <v>42675</v>
       </c>
       <c r="B76" t="n">
-        <v>31.15999984741211</v>
+        <v>36.79000091552734</v>
       </c>
       <c r="C76" t="n">
-        <v>32.9900016784668</v>
+        <v>38</v>
       </c>
       <c r="D76" t="n">
-        <v>26.68000030517578</v>
+        <v>25.70999908447266</v>
       </c>
       <c r="E76" t="n">
-        <v>28.05999946594238</v>
+        <v>30.86000061035156</v>
       </c>
       <c r="F76" t="n">
-        <v>26.63768577575684</v>
+        <v>29.29576301574707</v>
       </c>
       <c r="G76" t="n">
-        <v>12947225</v>
+        <v>22716965</v>
       </c>
       <c r="H76" t="n">
         <v>2016</v>
       </c>
       <c r="I76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -4487,10 +4479,10 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -4501,31 +4493,31 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>42736</v>
+        <v>42705</v>
       </c>
       <c r="B77" t="n">
-        <v>29.13999938964844</v>
+        <v>31.15999984741211</v>
       </c>
       <c r="C77" t="n">
-        <v>33.25</v>
+        <v>32.9900016784668</v>
       </c>
       <c r="D77" t="n">
-        <v>28.10000038146973</v>
+        <v>26.68000030517578</v>
       </c>
       <c r="E77" t="n">
-        <v>30.09000015258789</v>
+        <v>28.05999946594238</v>
       </c>
       <c r="F77" t="n">
-        <v>28.56479072570801</v>
+        <v>26.63768577575684</v>
       </c>
       <c r="G77" t="n">
-        <v>13858145</v>
+        <v>12947225</v>
       </c>
       <c r="H77" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -4540,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -4554,31 +4546,31 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>42767</v>
+        <v>42736</v>
       </c>
       <c r="B78" t="n">
-        <v>30.10000038146973</v>
+        <v>29.13999938964844</v>
       </c>
       <c r="C78" t="n">
-        <v>32.97999954223633</v>
+        <v>33.25</v>
       </c>
       <c r="D78" t="n">
-        <v>28.85000038146973</v>
+        <v>28.10000038146973</v>
       </c>
       <c r="E78" t="n">
-        <v>28.88999938964844</v>
+        <v>30.09000015258789</v>
       </c>
       <c r="F78" t="n">
-        <v>27.42561531066895</v>
+        <v>28.56479072570801</v>
       </c>
       <c r="G78" t="n">
-        <v>7537265</v>
+        <v>13858145</v>
       </c>
       <c r="H78" t="n">
         <v>2017</v>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -4593,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -4607,31 +4599,31 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>42795</v>
+        <v>42767</v>
       </c>
       <c r="B79" t="n">
-        <v>29.03000068664551</v>
+        <v>30.10000038146973</v>
       </c>
       <c r="C79" t="n">
-        <v>36.70000076293945</v>
+        <v>32.97999954223633</v>
       </c>
       <c r="D79" t="n">
-        <v>29.03000068664551</v>
+        <v>28.85000038146973</v>
       </c>
       <c r="E79" t="n">
-        <v>34.66999816894531</v>
+        <v>28.88999938964844</v>
       </c>
       <c r="F79" t="n">
-        <v>32.91263580322266</v>
+        <v>27.42561531066895</v>
       </c>
       <c r="G79" t="n">
-        <v>17651120</v>
+        <v>7537265</v>
       </c>
       <c r="H79" t="n">
         <v>2017</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -4646,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -4655,36 +4647,36 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>42826</v>
+        <v>42795</v>
       </c>
       <c r="B80" t="n">
-        <v>34.29999923706055</v>
+        <v>29.03000068664551</v>
       </c>
       <c r="C80" t="n">
-        <v>44.97000122070312</v>
+        <v>36.70000076293945</v>
       </c>
       <c r="D80" t="n">
-        <v>33.79999923706055</v>
+        <v>29.03000068664551</v>
       </c>
       <c r="E80" t="n">
-        <v>43.5</v>
+        <v>34.66999816894531</v>
       </c>
       <c r="F80" t="n">
-        <v>41.29506301879883</v>
+        <v>32.91263580322266</v>
       </c>
       <c r="G80" t="n">
-        <v>32677045</v>
+        <v>17651120</v>
       </c>
       <c r="H80" t="n">
         <v>2017</v>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
@@ -4699,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -4708,36 +4700,36 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>42856</v>
+        <v>42826</v>
       </c>
       <c r="B81" t="n">
+        <v>34.29999923706055</v>
+      </c>
+      <c r="C81" t="n">
+        <v>44.97000122070312</v>
+      </c>
+      <c r="D81" t="n">
+        <v>33.79999923706055</v>
+      </c>
+      <c r="E81" t="n">
         <v>43.5</v>
       </c>
-      <c r="C81" t="n">
-        <v>62.86000061035156</v>
-      </c>
-      <c r="D81" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="E81" t="n">
-        <v>54.77999877929688</v>
-      </c>
       <c r="F81" t="n">
-        <v>52.00329971313477</v>
+        <v>41.29506301879883</v>
       </c>
       <c r="G81" t="n">
-        <v>77263495</v>
+        <v>32677045</v>
       </c>
       <c r="H81" t="n">
         <v>2017</v>
       </c>
       <c r="I81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
@@ -4752,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -4766,31 +4758,31 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>42887</v>
+        <v>42856</v>
       </c>
       <c r="B82" t="n">
-        <v>54.66999816894531</v>
+        <v>43.5</v>
       </c>
       <c r="C82" t="n">
-        <v>63.20000076293945</v>
+        <v>62.86000061035156</v>
       </c>
       <c r="D82" t="n">
-        <v>48.41999816894531</v>
+        <v>43.5</v>
       </c>
       <c r="E82" t="n">
-        <v>49.58000183105469</v>
+        <v>54.77999877929688</v>
       </c>
       <c r="F82" t="n">
-        <v>47.06687927246094</v>
+        <v>52.00329971313477</v>
       </c>
       <c r="G82" t="n">
-        <v>42636675</v>
+        <v>77263495</v>
       </c>
       <c r="H82" t="n">
         <v>2017</v>
       </c>
       <c r="I82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -4805,10 +4797,10 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P82" t="n">
         <v>0</v>
@@ -4819,31 +4811,31 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>42917</v>
+        <v>42887</v>
       </c>
       <c r="B83" t="n">
-        <v>49.72999954223633</v>
+        <v>54.66999816894531</v>
       </c>
       <c r="C83" t="n">
-        <v>56.95999908447266</v>
+        <v>63.20000076293945</v>
       </c>
       <c r="D83" t="n">
-        <v>44.25</v>
+        <v>48.41999816894531</v>
       </c>
       <c r="E83" t="n">
-        <v>48.72000122070312</v>
+        <v>49.58000183105469</v>
       </c>
       <c r="F83" t="n">
-        <v>46.25046920776367</v>
+        <v>47.06687927246094</v>
       </c>
       <c r="G83" t="n">
-        <v>17185905</v>
+        <v>42636675</v>
       </c>
       <c r="H83" t="n">
         <v>2017</v>
       </c>
       <c r="I83" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -4858,10 +4850,10 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -4872,31 +4864,31 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>42948</v>
+        <v>42917</v>
       </c>
       <c r="B84" t="n">
-        <v>48.90000152587891</v>
+        <v>49.72999954223633</v>
       </c>
       <c r="C84" t="n">
-        <v>49.79999923706055</v>
+        <v>56.95999908447266</v>
       </c>
       <c r="D84" t="n">
-        <v>38.79999923706055</v>
+        <v>44.25</v>
       </c>
       <c r="E84" t="n">
-        <v>47.13000106811523</v>
+        <v>48.72000122070312</v>
       </c>
       <c r="F84" t="n">
-        <v>44.74106597900391</v>
+        <v>46.25046920776367</v>
       </c>
       <c r="G84" t="n">
-        <v>21177835</v>
+        <v>17185905</v>
       </c>
       <c r="H84" t="n">
         <v>2017</v>
       </c>
       <c r="I84" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -4911,10 +4903,10 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -4925,31 +4917,31 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>42979</v>
+        <v>42948</v>
       </c>
       <c r="B85" t="n">
-        <v>47.25</v>
+        <v>48.90000152587891</v>
       </c>
       <c r="C85" t="n">
-        <v>54.40000152587891</v>
+        <v>49.79999923706055</v>
       </c>
       <c r="D85" t="n">
-        <v>43.79999923706055</v>
+        <v>38.79999923706055</v>
       </c>
       <c r="E85" t="n">
-        <v>47.38000106811523</v>
+        <v>47.13000106811523</v>
       </c>
       <c r="F85" t="n">
-        <v>45.50273895263672</v>
+        <v>44.74106597900391</v>
       </c>
       <c r="G85" t="n">
-        <v>52021095</v>
+        <v>21177835</v>
       </c>
       <c r="H85" t="n">
         <v>2017</v>
       </c>
       <c r="I85" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -4964,10 +4956,10 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
@@ -4978,31 +4970,31 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43009</v>
+        <v>42979</v>
       </c>
       <c r="B86" t="n">
+        <v>47.25</v>
+      </c>
+      <c r="C86" t="n">
+        <v>54.40000152587891</v>
+      </c>
+      <c r="D86" t="n">
+        <v>43.79999923706055</v>
+      </c>
+      <c r="E86" t="n">
         <v>47.38000106811523</v>
       </c>
-      <c r="C86" t="n">
-        <v>51</v>
-      </c>
-      <c r="D86" t="n">
-        <v>46.33000183105469</v>
-      </c>
-      <c r="E86" t="n">
-        <v>47.84999847412109</v>
-      </c>
       <c r="F86" t="n">
-        <v>45.95410919189453</v>
+        <v>45.50273895263672</v>
       </c>
       <c r="G86" t="n">
-        <v>30385765</v>
+        <v>52021095</v>
       </c>
       <c r="H86" t="n">
         <v>2017</v>
       </c>
       <c r="I86" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -5017,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -5026,36 +5018,36 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="B87" t="n">
-        <v>47.90000152587891</v>
+        <v>47.38000106811523</v>
       </c>
       <c r="C87" t="n">
-        <v>67.95999908447266</v>
+        <v>51</v>
       </c>
       <c r="D87" t="n">
-        <v>45</v>
+        <v>46.33000183105469</v>
       </c>
       <c r="E87" t="n">
-        <v>63.59999847412109</v>
+        <v>47.84999847412109</v>
       </c>
       <c r="F87" t="n">
-        <v>61.08007431030273</v>
+        <v>45.95410919189453</v>
       </c>
       <c r="G87" t="n">
-        <v>72277215</v>
+        <v>30385765</v>
       </c>
       <c r="H87" t="n">
         <v>2017</v>
       </c>
       <c r="I87" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -5070,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -5079,36 +5071,36 @@
         <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="B88" t="n">
-        <v>64.40000152587891</v>
+        <v>47.90000152587891</v>
       </c>
       <c r="C88" t="n">
-        <v>69.40000152587891</v>
+        <v>67.95999908447266</v>
       </c>
       <c r="D88" t="n">
-        <v>56.41999816894531</v>
+        <v>45</v>
       </c>
       <c r="E88" t="n">
-        <v>62.72000122070312</v>
+        <v>63.59999847412109</v>
       </c>
       <c r="F88" t="n">
-        <v>60.23494338989258</v>
+        <v>61.08007431030273</v>
       </c>
       <c r="G88" t="n">
-        <v>52551335</v>
+        <v>72277215</v>
       </c>
       <c r="H88" t="n">
         <v>2017</v>
       </c>
       <c r="I88" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -5123,45 +5115,45 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43101</v>
+        <v>43070</v>
       </c>
       <c r="B89" t="n">
-        <v>63</v>
+        <v>64.40000152587891</v>
       </c>
       <c r="C89" t="n">
-        <v>64.43000030517578</v>
+        <v>69.40000152587891</v>
       </c>
       <c r="D89" t="n">
-        <v>51.59999847412109</v>
+        <v>56.41999816894531</v>
       </c>
       <c r="E89" t="n">
-        <v>54.13999938964844</v>
+        <v>62.72000122070312</v>
       </c>
       <c r="F89" t="n">
-        <v>51.99489212036133</v>
+        <v>60.23494338989258</v>
       </c>
       <c r="G89" t="n">
-        <v>22796570</v>
+        <v>52551335</v>
       </c>
       <c r="H89" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -5176,45 +5168,45 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="B90" t="n">
-        <v>54.97999954223633</v>
+        <v>63</v>
       </c>
       <c r="C90" t="n">
-        <v>57.20000076293945</v>
+        <v>64.43000030517578</v>
       </c>
       <c r="D90" t="n">
-        <v>46.65999984741211</v>
+        <v>51.59999847412109</v>
       </c>
       <c r="E90" t="n">
-        <v>48.66999816894531</v>
+        <v>54.13999938964844</v>
       </c>
       <c r="F90" t="n">
-        <v>46.74162292480469</v>
+        <v>51.99489212036133</v>
       </c>
       <c r="G90" t="n">
-        <v>26051050</v>
+        <v>22796570</v>
       </c>
       <c r="H90" t="n">
         <v>2018</v>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -5229,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O90" t="n">
         <v>0</v>
@@ -5243,31 +5235,31 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="B91" t="n">
-        <v>48.63999938964844</v>
+        <v>54.97999954223633</v>
       </c>
       <c r="C91" t="n">
-        <v>49.38999938964844</v>
+        <v>57.20000076293945</v>
       </c>
       <c r="D91" t="n">
-        <v>38.02000045776367</v>
+        <v>46.65999984741211</v>
       </c>
       <c r="E91" t="n">
-        <v>40.52000045776367</v>
+        <v>48.66999816894531</v>
       </c>
       <c r="F91" t="n">
-        <v>38.9145393371582</v>
+        <v>46.74162292480469</v>
       </c>
       <c r="G91" t="n">
-        <v>16653670</v>
+        <v>26051050</v>
       </c>
       <c r="H91" t="n">
         <v>2018</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
@@ -5282,10 +5274,10 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P91" t="n">
         <v>0</v>
@@ -5296,31 +5288,31 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="B92" t="n">
-        <v>41</v>
+        <v>48.63999938964844</v>
       </c>
       <c r="C92" t="n">
-        <v>49.79999923706055</v>
+        <v>49.38999938964844</v>
       </c>
       <c r="D92" t="n">
-        <v>40.68000030517578</v>
+        <v>38.02000045776367</v>
       </c>
       <c r="E92" t="n">
-        <v>48.5099983215332</v>
+        <v>40.52000045776367</v>
       </c>
       <c r="F92" t="n">
-        <v>46.58796310424805</v>
+        <v>38.9145393371582</v>
       </c>
       <c r="G92" t="n">
-        <v>29705740</v>
+        <v>16653670</v>
       </c>
       <c r="H92" t="n">
         <v>2018</v>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J92" t="n">
         <v>1</v>
@@ -5335,45 +5327,45 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P92" t="n">
         <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="B93" t="n">
+        <v>41</v>
+      </c>
+      <c r="C93" t="n">
+        <v>49.79999923706055</v>
+      </c>
+      <c r="D93" t="n">
+        <v>40.68000030517578</v>
+      </c>
+      <c r="E93" t="n">
         <v>48.5099983215332</v>
       </c>
-      <c r="C93" t="n">
-        <v>55.11999893188477</v>
-      </c>
-      <c r="D93" t="n">
-        <v>45.22000122070312</v>
-      </c>
-      <c r="E93" t="n">
-        <v>52.7400016784668</v>
-      </c>
       <c r="F93" t="n">
-        <v>50.65036773681641</v>
+        <v>46.58796310424805</v>
       </c>
       <c r="G93" t="n">
-        <v>21717465</v>
+        <v>29705740</v>
       </c>
       <c r="H93" t="n">
         <v>2018</v>
       </c>
       <c r="I93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
@@ -5388,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O93" t="n">
         <v>0</v>
@@ -5397,36 +5389,36 @@
         <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43252</v>
+        <v>43221</v>
       </c>
       <c r="B94" t="n">
+        <v>48.5099983215332</v>
+      </c>
+      <c r="C94" t="n">
+        <v>55.11999893188477</v>
+      </c>
+      <c r="D94" t="n">
+        <v>45.22000122070312</v>
+      </c>
+      <c r="E94" t="n">
         <v>52.7400016784668</v>
       </c>
-      <c r="C94" t="n">
-        <v>54.79999923706055</v>
-      </c>
-      <c r="D94" t="n">
-        <v>44.40000152587891</v>
-      </c>
-      <c r="E94" t="n">
-        <v>45.59999847412109</v>
-      </c>
       <c r="F94" t="n">
-        <v>43.79325866699219</v>
+        <v>50.65036773681641</v>
       </c>
       <c r="G94" t="n">
-        <v>7220005</v>
+        <v>21717465</v>
       </c>
       <c r="H94" t="n">
         <v>2018</v>
       </c>
       <c r="I94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -5441,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O94" t="n">
         <v>0</v>
@@ -5455,31 +5447,31 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43282</v>
+        <v>43252</v>
       </c>
       <c r="B95" t="n">
-        <v>45.97000122070312</v>
+        <v>52.7400016784668</v>
       </c>
       <c r="C95" t="n">
-        <v>51.5</v>
+        <v>54.79999923706055</v>
       </c>
       <c r="D95" t="n">
-        <v>45.20000076293945</v>
+        <v>44.40000152587891</v>
       </c>
       <c r="E95" t="n">
-        <v>48.77999877929688</v>
+        <v>45.59999847412109</v>
       </c>
       <c r="F95" t="n">
-        <v>46.84726333618164</v>
+        <v>43.79325866699219</v>
       </c>
       <c r="G95" t="n">
-        <v>8201045</v>
+        <v>7220005</v>
       </c>
       <c r="H95" t="n">
         <v>2018</v>
       </c>
       <c r="I95" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -5494,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O95" t="n">
         <v>0</v>
@@ -5503,36 +5495,36 @@
         <v>0</v>
       </c>
       <c r="Q95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43313</v>
+        <v>43282</v>
       </c>
       <c r="B96" t="n">
-        <v>48.79000091552734</v>
+        <v>45.97000122070312</v>
       </c>
       <c r="C96" t="n">
-        <v>54.20000076293945</v>
+        <v>51.5</v>
       </c>
       <c r="D96" t="n">
-        <v>47.11000061035156</v>
+        <v>45.20000076293945</v>
       </c>
       <c r="E96" t="n">
-        <v>53.22000122070312</v>
+        <v>48.77999877929688</v>
       </c>
       <c r="F96" t="n">
-        <v>51.11134719848633</v>
+        <v>46.84726333618164</v>
       </c>
       <c r="G96" t="n">
-        <v>7897980</v>
+        <v>8201045</v>
       </c>
       <c r="H96" t="n">
         <v>2018</v>
       </c>
       <c r="I96" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -5547,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O96" t="n">
         <v>0</v>
@@ -5556,36 +5548,36 @@
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43344</v>
+        <v>43313</v>
       </c>
       <c r="B97" t="n">
-        <v>53.2599983215332</v>
+        <v>48.79000091552734</v>
       </c>
       <c r="C97" t="n">
-        <v>57.95999908447266</v>
+        <v>54.20000076293945</v>
       </c>
       <c r="D97" t="n">
-        <v>42.5</v>
+        <v>47.11000061035156</v>
       </c>
       <c r="E97" t="n">
-        <v>43.34000015258789</v>
+        <v>53.22000122070312</v>
       </c>
       <c r="F97" t="n">
-        <v>41.62280654907227</v>
+        <v>51.11134719848633</v>
       </c>
       <c r="G97" t="n">
-        <v>6294575</v>
+        <v>7897980</v>
       </c>
       <c r="H97" t="n">
         <v>2018</v>
       </c>
       <c r="I97" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
@@ -5600,10 +5592,10 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P97" t="n">
         <v>0</v>
@@ -5614,31 +5606,31 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43374</v>
+        <v>43344</v>
       </c>
       <c r="B98" t="n">
-        <v>42.79999923706055</v>
+        <v>53.2599983215332</v>
       </c>
       <c r="C98" t="n">
-        <v>45.18999862670898</v>
+        <v>57.95999908447266</v>
       </c>
       <c r="D98" t="n">
-        <v>38.45999908447266</v>
+        <v>42.5</v>
       </c>
       <c r="E98" t="n">
-        <v>40.56000137329102</v>
+        <v>43.34000015258789</v>
       </c>
       <c r="F98" t="n">
-        <v>38.95295715332031</v>
+        <v>41.62280654907227</v>
       </c>
       <c r="G98" t="n">
-        <v>2620530</v>
+        <v>6294575</v>
       </c>
       <c r="H98" t="n">
         <v>2018</v>
       </c>
       <c r="I98" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
@@ -5653,10 +5645,10 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P98" t="n">
         <v>0</v>
@@ -5667,31 +5659,31 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43405</v>
+        <v>43374</v>
       </c>
       <c r="B99" t="n">
-        <v>41.13999938964844</v>
+        <v>42.79999923706055</v>
       </c>
       <c r="C99" t="n">
-        <v>54.90000152587891</v>
+        <v>45.18999862670898</v>
       </c>
       <c r="D99" t="n">
-        <v>40.22000122070312</v>
+        <v>38.45999908447266</v>
       </c>
       <c r="E99" t="n">
-        <v>53.90999984741211</v>
+        <v>40.56000137329102</v>
       </c>
       <c r="F99" t="n">
-        <v>51.77400588989258</v>
+        <v>38.95295715332031</v>
       </c>
       <c r="G99" t="n">
-        <v>14051335</v>
+        <v>2620530</v>
       </c>
       <c r="H99" t="n">
         <v>2018</v>
       </c>
       <c r="I99" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
@@ -5706,10 +5698,10 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P99" t="n">
         <v>0</v>
@@ -5720,31 +5712,31 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="B100" t="n">
-        <v>54</v>
+        <v>41.13999938964844</v>
       </c>
       <c r="C100" t="n">
-        <v>56.5</v>
+        <v>54.90000152587891</v>
       </c>
       <c r="D100" t="n">
-        <v>47.45999908447266</v>
+        <v>40.22000122070312</v>
       </c>
       <c r="E100" t="n">
-        <v>53.93000030517578</v>
+        <v>53.90999984741211</v>
       </c>
       <c r="F100" t="n">
-        <v>51.79321670532227</v>
+        <v>51.77400588989258</v>
       </c>
       <c r="G100" t="n">
-        <v>6449825</v>
+        <v>14051335</v>
       </c>
       <c r="H100" t="n">
         <v>2018</v>
       </c>
       <c r="I100" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -5759,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O100" t="n">
         <v>0</v>
@@ -5773,31 +5765,31 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="B101" t="n">
         <v>54</v>
       </c>
       <c r="C101" t="n">
-        <v>56.18000030517578</v>
+        <v>56.5</v>
       </c>
       <c r="D101" t="n">
-        <v>47.0099983215332</v>
+        <v>47.45999908447266</v>
       </c>
       <c r="E101" t="n">
-        <v>48.45999908447266</v>
+        <v>53.93000030517578</v>
       </c>
       <c r="F101" t="n">
-        <v>46.53994369506836</v>
+        <v>51.79321670532227</v>
       </c>
       <c r="G101" t="n">
-        <v>3335535</v>
+        <v>6449825</v>
       </c>
       <c r="H101" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
@@ -5812,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O101" t="n">
         <v>0</v>
@@ -5821,89 +5813,89 @@
         <v>0</v>
       </c>
       <c r="Q101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B102" t="n">
-        <v>48.59999847412109</v>
+        <v>54</v>
       </c>
       <c r="C102" t="n">
-        <v>49.68000030517578</v>
+        <v>56.18000030517578</v>
       </c>
       <c r="D102" t="n">
-        <v>41.09999847412109</v>
+        <v>47.0099983215332</v>
       </c>
       <c r="E102" t="n">
-        <v>46.45999908447266</v>
+        <v>48.45999908447266</v>
       </c>
       <c r="F102" t="n">
-        <v>44.61918258666992</v>
+        <v>46.53994369506836</v>
       </c>
       <c r="G102" t="n">
-        <v>3529495</v>
+        <v>3335535</v>
       </c>
       <c r="H102" t="n">
         <v>2019</v>
       </c>
       <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
         <v>2</v>
-      </c>
-      <c r="J102" t="n">
-        <v>1</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0</v>
-      </c>
-      <c r="N102" t="n">
-        <v>5</v>
-      </c>
-      <c r="O102" t="n">
-        <v>0</v>
-      </c>
-      <c r="P102" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="B103" t="n">
-        <v>46.38999938964844</v>
+        <v>48.59999847412109</v>
       </c>
       <c r="C103" t="n">
-        <v>54.27999877929688</v>
+        <v>49.68000030517578</v>
       </c>
       <c r="D103" t="n">
-        <v>46.38999938964844</v>
+        <v>41.09999847412109</v>
       </c>
       <c r="E103" t="n">
-        <v>47.93000030517578</v>
+        <v>46.45999908447266</v>
       </c>
       <c r="F103" t="n">
-        <v>46.03094482421875</v>
+        <v>44.61918258666992</v>
       </c>
       <c r="G103" t="n">
-        <v>4024490</v>
+        <v>3529495</v>
       </c>
       <c r="H103" t="n">
         <v>2019</v>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
         <v>1</v>
@@ -5918,45 +5910,45 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O103" t="n">
         <v>0</v>
       </c>
       <c r="P103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="B104" t="n">
-        <v>48</v>
+        <v>46.38999938964844</v>
       </c>
       <c r="C104" t="n">
-        <v>51.90000152587891</v>
+        <v>54.27999877929688</v>
       </c>
       <c r="D104" t="n">
-        <v>48</v>
+        <v>46.38999938964844</v>
       </c>
       <c r="E104" t="n">
-        <v>49.27000045776367</v>
+        <v>47.93000030517578</v>
       </c>
       <c r="F104" t="n">
-        <v>47.31784820556641</v>
+        <v>46.03094482421875</v>
       </c>
       <c r="G104" t="n">
-        <v>2975770</v>
+        <v>4024490</v>
       </c>
       <c r="H104" t="n">
         <v>2019</v>
       </c>
       <c r="I104" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J104" t="n">
         <v>1</v>
@@ -5971,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O104" t="n">
         <v>0</v>
@@ -5985,31 +5977,31 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="B105" t="n">
+        <v>48</v>
+      </c>
+      <c r="C105" t="n">
+        <v>51.90000152587891</v>
+      </c>
+      <c r="D105" t="n">
+        <v>48</v>
+      </c>
+      <c r="E105" t="n">
         <v>49.27000045776367</v>
       </c>
-      <c r="C105" t="n">
-        <v>61</v>
-      </c>
-      <c r="D105" t="n">
-        <v>46.13999938964844</v>
-      </c>
-      <c r="E105" t="n">
-        <v>58.61999893188477</v>
-      </c>
       <c r="F105" t="n">
-        <v>56.29738998413086</v>
+        <v>47.31784820556641</v>
       </c>
       <c r="G105" t="n">
-        <v>11477675</v>
+        <v>2975770</v>
       </c>
       <c r="H105" t="n">
         <v>2019</v>
       </c>
       <c r="I105" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J105" t="n">
         <v>1</v>
@@ -6024,10 +6016,10 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P105" t="n">
         <v>0</v>
@@ -6038,31 +6030,31 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="B106" t="n">
-        <v>58.20000076293945</v>
+        <v>49.27000045776367</v>
       </c>
       <c r="C106" t="n">
         <v>61</v>
       </c>
       <c r="D106" t="n">
-        <v>53.34999847412109</v>
+        <v>46.13999938964844</v>
       </c>
       <c r="E106" t="n">
-        <v>54.54999923706055</v>
+        <v>58.61999893188477</v>
       </c>
       <c r="F106" t="n">
-        <v>52.38864898681641</v>
+        <v>56.29738998413086</v>
       </c>
       <c r="G106" t="n">
-        <v>4068080</v>
+        <v>11477675</v>
       </c>
       <c r="H106" t="n">
         <v>2019</v>
       </c>
       <c r="I106" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J106" t="n">
         <v>1</v>
@@ -6077,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O106" t="n">
         <v>1</v>
@@ -6091,31 +6083,31 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="B107" t="n">
-        <v>54.20000076293945</v>
+        <v>58.20000076293945</v>
       </c>
       <c r="C107" t="n">
-        <v>60.40000152587891</v>
+        <v>61</v>
       </c>
       <c r="D107" t="n">
-        <v>49.06000137329102</v>
+        <v>53.34999847412109</v>
       </c>
       <c r="E107" t="n">
-        <v>50.13999938964844</v>
+        <v>54.54999923706055</v>
       </c>
       <c r="F107" t="n">
-        <v>48.15337753295898</v>
+        <v>52.38864898681641</v>
       </c>
       <c r="G107" t="n">
-        <v>3661375</v>
+        <v>4068080</v>
       </c>
       <c r="H107" t="n">
         <v>2019</v>
       </c>
       <c r="I107" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J107" t="n">
         <v>1</v>
@@ -6130,10 +6122,10 @@
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P107" t="n">
         <v>0</v>
@@ -6144,31 +6136,31 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="B108" t="n">
+        <v>54.20000076293945</v>
+      </c>
+      <c r="C108" t="n">
+        <v>60.40000152587891</v>
+      </c>
+      <c r="D108" t="n">
+        <v>49.06000137329102</v>
+      </c>
+      <c r="E108" t="n">
         <v>50.13999938964844</v>
       </c>
-      <c r="C108" t="n">
-        <v>54.70999908447266</v>
-      </c>
-      <c r="D108" t="n">
-        <v>45.20000076293945</v>
-      </c>
-      <c r="E108" t="n">
-        <v>51.25</v>
-      </c>
       <c r="F108" t="n">
-        <v>49.21940231323242</v>
+        <v>48.15337753295898</v>
       </c>
       <c r="G108" t="n">
-        <v>2437275</v>
+        <v>3661375</v>
       </c>
       <c r="H108" t="n">
         <v>2019</v>
       </c>
       <c r="I108" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J108" t="n">
         <v>1</v>
@@ -6183,10 +6175,10 @@
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P108" t="n">
         <v>0</v>
@@ -6197,31 +6189,31 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="B109" t="n">
+        <v>50.13999938964844</v>
+      </c>
+      <c r="C109" t="n">
+        <v>54.70999908447266</v>
+      </c>
+      <c r="D109" t="n">
+        <v>45.20000076293945</v>
+      </c>
+      <c r="E109" t="n">
         <v>51.25</v>
       </c>
-      <c r="C109" t="n">
-        <v>58.95000076293945</v>
-      </c>
-      <c r="D109" t="n">
-        <v>49</v>
-      </c>
-      <c r="E109" t="n">
-        <v>55.18999862670898</v>
-      </c>
       <c r="F109" t="n">
-        <v>53.00328826904297</v>
+        <v>49.21940231323242</v>
       </c>
       <c r="G109" t="n">
-        <v>3260945</v>
+        <v>2437275</v>
       </c>
       <c r="H109" t="n">
         <v>2019</v>
       </c>
       <c r="I109" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J109" t="n">
         <v>1</v>
@@ -6236,45 +6228,45 @@
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P109" t="n">
         <v>0</v>
       </c>
       <c r="Q109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B110" t="n">
-        <v>55.58000183105469</v>
+        <v>51.25</v>
       </c>
       <c r="C110" t="n">
-        <v>58.4900016784668</v>
+        <v>58.95000076293945</v>
       </c>
       <c r="D110" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E110" t="n">
-        <v>57.84000015258789</v>
+        <v>55.18999862670898</v>
       </c>
       <c r="F110" t="n">
-        <v>55.54829406738281</v>
+        <v>53.00328826904297</v>
       </c>
       <c r="G110" t="n">
-        <v>2376600</v>
+        <v>3260945</v>
       </c>
       <c r="H110" t="n">
         <v>2019</v>
       </c>
       <c r="I110" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -6289,13 +6281,13 @@
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O110" t="n">
         <v>0</v>
       </c>
       <c r="P110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q110" t="n">
         <v>2</v>
@@ -6303,31 +6295,31 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B111" t="n">
-        <v>58.97000122070312</v>
+        <v>55.58000183105469</v>
       </c>
       <c r="C111" t="n">
-        <v>64.80000305175781</v>
+        <v>58.4900016784668</v>
       </c>
       <c r="D111" t="n">
-        <v>56.40999984741211</v>
+        <v>48</v>
       </c>
       <c r="E111" t="n">
-        <v>60.06999969482422</v>
+        <v>57.84000015258789</v>
       </c>
       <c r="F111" t="n">
-        <v>57.68994140625</v>
+        <v>55.54829406738281</v>
       </c>
       <c r="G111" t="n">
-        <v>7718570</v>
+        <v>2376600</v>
       </c>
       <c r="H111" t="n">
         <v>2019</v>
       </c>
       <c r="I111" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J111" t="n">
         <v>1</v>
@@ -6342,45 +6334,45 @@
         <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O111" t="n">
         <v>0</v>
       </c>
       <c r="P111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B112" t="n">
-        <v>60.38000106811523</v>
+        <v>58.97000122070312</v>
       </c>
       <c r="C112" t="n">
-        <v>66</v>
+        <v>64.80000305175781</v>
       </c>
       <c r="D112" t="n">
-        <v>59.11999893188477</v>
+        <v>56.40999984741211</v>
       </c>
       <c r="E112" t="n">
-        <v>61.36999893188477</v>
+        <v>60.06999969482422</v>
       </c>
       <c r="F112" t="n">
-        <v>59.23445129394531</v>
+        <v>57.68994140625</v>
       </c>
       <c r="G112" t="n">
-        <v>5590350</v>
+        <v>7718570</v>
       </c>
       <c r="H112" t="n">
         <v>2019</v>
       </c>
       <c r="I112" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
@@ -6395,45 +6387,45 @@
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P112" t="n">
         <v>0</v>
       </c>
       <c r="Q112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="B113" t="n">
-        <v>61.59999847412109</v>
+        <v>60.38000106811523</v>
       </c>
       <c r="C113" t="n">
-        <v>64.25</v>
+        <v>66</v>
       </c>
       <c r="D113" t="n">
-        <v>57.65999984741211</v>
+        <v>59.11999893188477</v>
       </c>
       <c r="E113" t="n">
-        <v>58.31000137329102</v>
+        <v>61.36999893188477</v>
       </c>
       <c r="F113" t="n">
-        <v>56.28093719482422</v>
+        <v>59.23445129394531</v>
       </c>
       <c r="G113" t="n">
-        <v>4816540</v>
+        <v>5590350</v>
       </c>
       <c r="H113" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J113" t="n">
         <v>1</v>
@@ -6448,45 +6440,45 @@
         <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P113" t="n">
         <v>0</v>
       </c>
       <c r="Q113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B114" t="n">
-        <v>57.59999847412109</v>
+        <v>61.59999847412109</v>
       </c>
       <c r="C114" t="n">
-        <v>64.80000305175781</v>
+        <v>64.25</v>
       </c>
       <c r="D114" t="n">
-        <v>52.40000152587891</v>
+        <v>57.65999984741211</v>
       </c>
       <c r="E114" t="n">
-        <v>52.88000106811523</v>
+        <v>58.31000137329102</v>
       </c>
       <c r="F114" t="n">
-        <v>51.03988647460938</v>
+        <v>56.28093719482422</v>
       </c>
       <c r="G114" t="n">
-        <v>3849365</v>
+        <v>4816540</v>
       </c>
       <c r="H114" t="n">
         <v>2020</v>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
         <v>1</v>
@@ -6501,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O114" t="n">
         <v>0</v>
@@ -6515,31 +6507,31 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B115" t="n">
-        <v>53.34000015258789</v>
+        <v>57.59999847412109</v>
       </c>
       <c r="C115" t="n">
-        <v>54.9900016784668</v>
+        <v>64.80000305175781</v>
       </c>
       <c r="D115" t="n">
-        <v>24.61000061035156</v>
+        <v>52.40000152587891</v>
       </c>
       <c r="E115" t="n">
-        <v>34</v>
+        <v>52.88000106811523</v>
       </c>
       <c r="F115" t="n">
-        <v>32.98194885253906</v>
+        <v>51.03988647460938</v>
       </c>
       <c r="G115" t="n">
-        <v>10408755</v>
+        <v>3849365</v>
       </c>
       <c r="H115" t="n">
         <v>2020</v>
       </c>
       <c r="I115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J115" t="n">
         <v>1</v>
@@ -6554,10 +6546,10 @@
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P115" t="n">
         <v>0</v>
@@ -6568,31 +6560,31 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B116" t="n">
+        <v>53.34000015258789</v>
+      </c>
+      <c r="C116" t="n">
+        <v>54.9900016784668</v>
+      </c>
+      <c r="D116" t="n">
+        <v>24.61000061035156</v>
+      </c>
+      <c r="E116" t="n">
         <v>34</v>
       </c>
-      <c r="C116" t="n">
-        <v>46.95999908447266</v>
-      </c>
-      <c r="D116" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="E116" t="n">
-        <v>41.2400016784668</v>
-      </c>
       <c r="F116" t="n">
-        <v>40.00516510009766</v>
+        <v>32.98194885253906</v>
       </c>
       <c r="G116" t="n">
-        <v>1785560</v>
+        <v>10408755</v>
       </c>
       <c r="H116" t="n">
         <v>2020</v>
       </c>
       <c r="I116" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J116" t="n">
         <v>1</v>
@@ -6607,45 +6599,45 @@
         <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B117" t="n">
+        <v>34</v>
+      </c>
+      <c r="C117" t="n">
+        <v>46.95999908447266</v>
+      </c>
+      <c r="D117" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="E117" t="n">
         <v>41.2400016784668</v>
       </c>
-      <c r="C117" t="n">
-        <v>56.18999862670898</v>
-      </c>
-      <c r="D117" t="n">
-        <v>39.0099983215332</v>
-      </c>
-      <c r="E117" t="n">
-        <v>54.63000106811523</v>
-      </c>
       <c r="F117" t="n">
-        <v>52.99422836303711</v>
+        <v>40.00516510009766</v>
       </c>
       <c r="G117" t="n">
-        <v>7648525</v>
+        <v>1785560</v>
       </c>
       <c r="H117" t="n">
         <v>2020</v>
       </c>
       <c r="I117" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J117" t="n">
         <v>1</v>
@@ -6660,45 +6652,45 @@
         <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O117" t="n">
         <v>0</v>
       </c>
       <c r="P117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B118" t="n">
-        <v>55.59999847412109</v>
+        <v>41.2400016784668</v>
       </c>
       <c r="C118" t="n">
-        <v>65</v>
+        <v>56.18999862670898</v>
       </c>
       <c r="D118" t="n">
-        <v>53.59999847412109</v>
+        <v>39.0099983215332</v>
       </c>
       <c r="E118" t="n">
-        <v>58.4900016784668</v>
+        <v>54.63000106811523</v>
       </c>
       <c r="F118" t="n">
-        <v>56.73865127563477</v>
+        <v>52.99422836303711</v>
       </c>
       <c r="G118" t="n">
-        <v>7986235</v>
+        <v>7648525</v>
       </c>
       <c r="H118" t="n">
         <v>2020</v>
       </c>
       <c r="I118" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J118" t="n">
         <v>1</v>
@@ -6713,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O118" t="n">
         <v>0</v>
@@ -6727,31 +6719,31 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B119" t="n">
-        <v>60</v>
+        <v>55.59999847412109</v>
       </c>
       <c r="C119" t="n">
-        <v>70.40000152587891</v>
+        <v>65</v>
       </c>
       <c r="D119" t="n">
-        <v>56.40000152587891</v>
+        <v>53.59999847412109</v>
       </c>
       <c r="E119" t="n">
-        <v>67.25</v>
+        <v>58.4900016784668</v>
       </c>
       <c r="F119" t="n">
-        <v>65.23635101318359</v>
+        <v>56.73865127563477</v>
       </c>
       <c r="G119" t="n">
-        <v>6170280</v>
+        <v>7986235</v>
       </c>
       <c r="H119" t="n">
         <v>2020</v>
       </c>
       <c r="I119" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
@@ -6766,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O119" t="n">
         <v>0</v>
@@ -6775,36 +6767,36 @@
         <v>0</v>
       </c>
       <c r="Q119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B120" t="n">
-        <v>68.30000305175781</v>
+        <v>60</v>
       </c>
       <c r="C120" t="n">
-        <v>83.52999877929688</v>
+        <v>70.40000152587891</v>
       </c>
       <c r="D120" t="n">
-        <v>66.59999847412109</v>
+        <v>56.40000152587891</v>
       </c>
       <c r="E120" t="n">
-        <v>70.05999755859375</v>
+        <v>67.25</v>
       </c>
       <c r="F120" t="n">
-        <v>67.96221160888672</v>
+        <v>65.23635101318359</v>
       </c>
       <c r="G120" t="n">
-        <v>17647100</v>
+        <v>6170280</v>
       </c>
       <c r="H120" t="n">
         <v>2020</v>
       </c>
       <c r="I120" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J120" t="n">
         <v>1</v>
@@ -6819,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="N120" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O120" t="n">
         <v>0</v>
@@ -6828,36 +6820,36 @@
         <v>0</v>
       </c>
       <c r="Q120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B121" t="n">
+        <v>68.30000305175781</v>
+      </c>
+      <c r="C121" t="n">
+        <v>83.52999877929688</v>
+      </c>
+      <c r="D121" t="n">
+        <v>66.59999847412109</v>
+      </c>
+      <c r="E121" t="n">
         <v>70.05999755859375</v>
       </c>
-      <c r="C121" t="n">
-        <v>91.93000030517578</v>
-      </c>
-      <c r="D121" t="n">
-        <v>66.83999633789062</v>
-      </c>
-      <c r="E121" t="n">
-        <v>83.52999877929688</v>
-      </c>
       <c r="F121" t="n">
-        <v>81.02887725830078</v>
+        <v>67.96221160888672</v>
       </c>
       <c r="G121" t="n">
-        <v>15910710</v>
+        <v>17647100</v>
       </c>
       <c r="H121" t="n">
         <v>2020</v>
       </c>
       <c r="I121" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J121" t="n">
         <v>1</v>
@@ -6872,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="N121" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O121" t="n">
         <v>0</v>
@@ -6886,31 +6878,31 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B122" t="n">
-        <v>84.01000213623047</v>
+        <v>70.05999755859375</v>
       </c>
       <c r="C122" t="n">
-        <v>89.40000152587891</v>
+        <v>91.93000030517578</v>
       </c>
       <c r="D122" t="n">
-        <v>79.23999786376953</v>
+        <v>66.83999633789062</v>
       </c>
       <c r="E122" t="n">
-        <v>82.80000305175781</v>
+        <v>83.52999877929688</v>
       </c>
       <c r="F122" t="n">
-        <v>80.32074737548828</v>
+        <v>81.02887725830078</v>
       </c>
       <c r="G122" t="n">
-        <v>5686055</v>
+        <v>15910710</v>
       </c>
       <c r="H122" t="n">
         <v>2020</v>
       </c>
       <c r="I122" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J122" t="n">
         <v>1</v>
@@ -6925,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="N122" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O122" t="n">
         <v>0</v>
@@ -6939,31 +6931,31 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B123" t="n">
-        <v>83.98000335693359</v>
+        <v>84.01000213623047</v>
       </c>
       <c r="C123" t="n">
-        <v>95.94999694824219</v>
+        <v>89.40000152587891</v>
       </c>
       <c r="D123" t="n">
-        <v>80.88999938964844</v>
+        <v>79.23999786376953</v>
       </c>
       <c r="E123" t="n">
-        <v>91.95999908447266</v>
+        <v>82.80000305175781</v>
       </c>
       <c r="F123" t="n">
-        <v>89.20647430419922</v>
+        <v>80.32074737548828</v>
       </c>
       <c r="G123" t="n">
-        <v>5595160</v>
+        <v>5686055</v>
       </c>
       <c r="H123" t="n">
         <v>2020</v>
       </c>
       <c r="I123" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J123" t="n">
         <v>1</v>
@@ -6978,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O123" t="n">
         <v>0</v>
@@ -6992,31 +6984,31 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B124" t="n">
-        <v>92.23000335693359</v>
+        <v>83.98000335693359</v>
       </c>
       <c r="C124" t="n">
-        <v>130.3999938964844</v>
+        <v>95.94999694824219</v>
       </c>
       <c r="D124" t="n">
-        <v>92.19999694824219</v>
+        <v>80.88999938964844</v>
       </c>
       <c r="E124" t="n">
-        <v>128.6799926757812</v>
+        <v>91.95999908447266</v>
       </c>
       <c r="F124" t="n">
-        <v>124.8269653320312</v>
+        <v>89.20647430419922</v>
       </c>
       <c r="G124" t="n">
-        <v>24931495</v>
+        <v>5595160</v>
       </c>
       <c r="H124" t="n">
         <v>2020</v>
       </c>
       <c r="I124" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J124" t="n">
         <v>1</v>
@@ -7031,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="N124" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O124" t="n">
         <v>0</v>
@@ -7045,31 +7037,31 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B125" t="n">
-        <v>130.75</v>
+        <v>92.23000335693359</v>
       </c>
       <c r="C125" t="n">
-        <v>134</v>
+        <v>130.3999938964844</v>
       </c>
       <c r="D125" t="n">
-        <v>116.620002746582</v>
+        <v>92.19999694824219</v>
       </c>
       <c r="E125" t="n">
-        <v>127.6500015258789</v>
+        <v>128.6799926757812</v>
       </c>
       <c r="F125" t="n">
-        <v>123.8278121948242</v>
+        <v>124.8269653320312</v>
       </c>
       <c r="G125" t="n">
-        <v>6082880</v>
+        <v>24931495</v>
       </c>
       <c r="H125" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J125" t="n">
         <v>1</v>
@@ -7084,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O125" t="n">
         <v>0</v>
@@ -7098,31 +7090,31 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B126" t="n">
-        <v>130.8000030517578</v>
+        <v>130.75</v>
       </c>
       <c r="C126" t="n">
-        <v>173.9299926757812</v>
+        <v>134</v>
       </c>
       <c r="D126" t="n">
-        <v>122.4700012207031</v>
+        <v>116.620002746582</v>
       </c>
       <c r="E126" t="n">
-        <v>164.7799987792969</v>
+        <v>127.6500015258789</v>
       </c>
       <c r="F126" t="n">
-        <v>159.8460388183594</v>
+        <v>123.8278121948242</v>
       </c>
       <c r="G126" t="n">
-        <v>8053380</v>
+        <v>6082880</v>
       </c>
       <c r="H126" t="n">
         <v>2021</v>
       </c>
       <c r="I126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
         <v>1</v>
@@ -7137,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="N126" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O126" t="n">
         <v>0</v>
@@ -7151,31 +7143,31 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B127" t="n">
-        <v>167.5599975585938</v>
+        <v>130.8000030517578</v>
       </c>
       <c r="C127" t="n">
-        <v>189</v>
+        <v>173.9299926757812</v>
       </c>
       <c r="D127" t="n">
-        <v>162.1000061035156</v>
+        <v>122.4700012207031</v>
       </c>
       <c r="E127" t="n">
-        <v>178.7100067138672</v>
+        <v>164.7799987792969</v>
       </c>
       <c r="F127" t="n">
-        <v>173.3589477539062</v>
+        <v>159.8460388183594</v>
       </c>
       <c r="G127" t="n">
-        <v>3852375</v>
+        <v>8053380</v>
       </c>
       <c r="H127" t="n">
         <v>2021</v>
       </c>
       <c r="I127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
         <v>1</v>
@@ -7190,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O127" t="n">
         <v>0</v>
@@ -7204,31 +7196,31 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B128" t="n">
-        <v>180.3800048828125</v>
+        <v>167.5599975585938</v>
       </c>
       <c r="C128" t="n">
-        <v>202.3000030517578</v>
+        <v>189</v>
       </c>
       <c r="D128" t="n">
-        <v>171.1100006103516</v>
+        <v>162.1000061035156</v>
       </c>
       <c r="E128" t="n">
-        <v>188.8899993896484</v>
+        <v>178.7100067138672</v>
       </c>
       <c r="F128" t="n">
-        <v>183.234130859375</v>
+        <v>173.3589477539062</v>
       </c>
       <c r="G128" t="n">
-        <v>3833965</v>
+        <v>3852375</v>
       </c>
       <c r="H128" t="n">
         <v>2021</v>
       </c>
       <c r="I128" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J128" t="n">
         <v>1</v>
@@ -7243,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O128" t="n">
         <v>0</v>
@@ -7257,31 +7249,31 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B129" t="n">
-        <v>192</v>
+        <v>180.3800048828125</v>
       </c>
       <c r="C129" t="n">
-        <v>218.9400024414062</v>
+        <v>202.3000030517578</v>
       </c>
       <c r="D129" t="n">
-        <v>176.3000030517578</v>
+        <v>171.1100006103516</v>
       </c>
       <c r="E129" t="n">
-        <v>199.3300018310547</v>
+        <v>188.8899993896484</v>
       </c>
       <c r="F129" t="n">
-        <v>193.3615112304688</v>
+        <v>183.234130859375</v>
       </c>
       <c r="G129" t="n">
-        <v>4130160</v>
+        <v>3833965</v>
       </c>
       <c r="H129" t="n">
         <v>2021</v>
       </c>
       <c r="I129" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J129" t="n">
         <v>1</v>
@@ -7296,10 +7288,10 @@
         <v>0</v>
       </c>
       <c r="N129" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P129" t="n">
         <v>0</v>
@@ -7310,31 +7302,31 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B130" t="n">
-        <v>200.8000030517578</v>
+        <v>192</v>
       </c>
       <c r="C130" t="n">
-        <v>208.3999938964844</v>
+        <v>218.9400024414062</v>
       </c>
       <c r="D130" t="n">
-        <v>180.1199951171875</v>
+        <v>176.3000030517578</v>
       </c>
       <c r="E130" t="n">
-        <v>180.8399963378906</v>
+        <v>199.3300018310547</v>
       </c>
       <c r="F130" t="n">
-        <v>175.4251403808594</v>
+        <v>193.3615112304688</v>
       </c>
       <c r="G130" t="n">
-        <v>3515715</v>
+        <v>4130160</v>
       </c>
       <c r="H130" t="n">
         <v>2021</v>
       </c>
       <c r="I130" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J130" t="n">
         <v>1</v>
@@ -7349,10 +7341,10 @@
         <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P130" t="n">
         <v>0</v>
@@ -7363,31 +7355,31 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B131" t="n">
-        <v>180.0099945068359</v>
+        <v>200.8000030517578</v>
       </c>
       <c r="C131" t="n">
-        <v>196.8999938964844</v>
+        <v>208.3999938964844</v>
       </c>
       <c r="D131" t="n">
-        <v>170.1999969482422</v>
+        <v>180.1199951171875</v>
       </c>
       <c r="E131" t="n">
-        <v>181.0800018310547</v>
+        <v>180.8399963378906</v>
       </c>
       <c r="F131" t="n">
-        <v>175.6579742431641</v>
+        <v>175.4251403808594</v>
       </c>
       <c r="G131" t="n">
-        <v>6056710</v>
+        <v>3515715</v>
       </c>
       <c r="H131" t="n">
         <v>2021</v>
       </c>
       <c r="I131" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J131" t="n">
         <v>1</v>
@@ -7402,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="N131" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O131" t="n">
         <v>0</v>
@@ -7416,31 +7408,31 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B132" t="n">
-        <v>182</v>
+        <v>180.0099945068359</v>
       </c>
       <c r="C132" t="n">
-        <v>192</v>
+        <v>196.8999938964844</v>
       </c>
       <c r="D132" t="n">
-        <v>142</v>
+        <v>170.1999969482422</v>
       </c>
       <c r="E132" t="n">
-        <v>160.3800048828125</v>
+        <v>181.0800018310547</v>
       </c>
       <c r="F132" t="n">
-        <v>155.5777893066406</v>
+        <v>175.6579742431641</v>
       </c>
       <c r="G132" t="n">
-        <v>2429250</v>
+        <v>6056710</v>
       </c>
       <c r="H132" t="n">
         <v>2021</v>
       </c>
       <c r="I132" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J132" t="n">
         <v>1</v>
@@ -7455,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="N132" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P132" t="n">
         <v>0</v>
@@ -7469,31 +7461,31 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B133" t="n">
-        <v>162.9799957275391</v>
+        <v>182</v>
       </c>
       <c r="C133" t="n">
-        <v>195.9799957275391</v>
+        <v>192</v>
       </c>
       <c r="D133" t="n">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="E133" t="n">
-        <v>176.5299987792969</v>
+        <v>160.3800048828125</v>
       </c>
       <c r="F133" t="n">
-        <v>171.2442169189453</v>
+        <v>155.5777893066406</v>
       </c>
       <c r="G133" t="n">
-        <v>2169090</v>
+        <v>2429250</v>
       </c>
       <c r="H133" t="n">
         <v>2021</v>
       </c>
       <c r="I133" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J133" t="n">
         <v>1</v>
@@ -7508,45 +7500,45 @@
         <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P133" t="n">
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B134" t="n">
-        <v>174.6000061035156</v>
+        <v>162.9799957275391</v>
       </c>
       <c r="C134" t="n">
-        <v>200</v>
+        <v>195.9799957275391</v>
       </c>
       <c r="D134" t="n">
-        <v>160.1300048828125</v>
+        <v>160</v>
       </c>
       <c r="E134" t="n">
-        <v>168.8000030517578</v>
+        <v>176.5299987792969</v>
       </c>
       <c r="F134" t="n">
-        <v>164.2618865966797</v>
+        <v>171.2442169189453</v>
       </c>
       <c r="G134" t="n">
-        <v>2223600</v>
+        <v>2169090</v>
       </c>
       <c r="H134" t="n">
         <v>2021</v>
       </c>
       <c r="I134" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J134" t="n">
         <v>1</v>
@@ -7561,45 +7553,45 @@
         <v>0</v>
       </c>
       <c r="N134" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P134" t="n">
         <v>0</v>
       </c>
       <c r="Q134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B135" t="n">
-        <v>168.1999969482422</v>
+        <v>174.6000061035156</v>
       </c>
       <c r="C135" t="n">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="D135" t="n">
-        <v>159.6000061035156</v>
+        <v>160.1300048828125</v>
       </c>
       <c r="E135" t="n">
-        <v>162</v>
+        <v>168.8000030517578</v>
       </c>
       <c r="F135" t="n">
-        <v>157.6447143554688</v>
+        <v>164.2618865966797</v>
       </c>
       <c r="G135" t="n">
-        <v>1269330</v>
+        <v>2223600</v>
       </c>
       <c r="H135" t="n">
         <v>2021</v>
       </c>
       <c r="I135" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J135" t="n">
         <v>1</v>
@@ -7614,10 +7606,10 @@
         <v>0</v>
       </c>
       <c r="N135" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P135" t="n">
         <v>0</v>
@@ -7628,31 +7620,31 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B136" t="n">
+        <v>168.1999969482422</v>
+      </c>
+      <c r="C136" t="n">
+        <v>177</v>
+      </c>
+      <c r="D136" t="n">
+        <v>159.6000061035156</v>
+      </c>
+      <c r="E136" t="n">
         <v>162</v>
       </c>
-      <c r="C136" t="n">
-        <v>188</v>
-      </c>
-      <c r="D136" t="n">
-        <v>152.2100067138672</v>
-      </c>
-      <c r="E136" t="n">
-        <v>161.4499969482422</v>
-      </c>
       <c r="F136" t="n">
-        <v>157.1094818115234</v>
+        <v>157.6447143554688</v>
       </c>
       <c r="G136" t="n">
-        <v>5206410</v>
+        <v>1269330</v>
       </c>
       <c r="H136" t="n">
         <v>2021</v>
       </c>
       <c r="I136" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J136" t="n">
         <v>1</v>
@@ -7667,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="N136" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O136" t="n">
         <v>0</v>
@@ -7676,36 +7668,36 @@
         <v>0</v>
       </c>
       <c r="Q136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B137" t="n">
-        <v>161.4700012207031</v>
+        <v>162</v>
       </c>
       <c r="C137" t="n">
-        <v>183.3999938964844</v>
+        <v>188</v>
       </c>
       <c r="D137" t="n">
-        <v>160</v>
+        <v>152.2100067138672</v>
       </c>
       <c r="E137" t="n">
-        <v>173.0399932861328</v>
+        <v>161.4499969482422</v>
       </c>
       <c r="F137" t="n">
-        <v>168.3878936767578</v>
+        <v>157.1094818115234</v>
       </c>
       <c r="G137" t="n">
-        <v>6233160</v>
+        <v>5206410</v>
       </c>
       <c r="H137" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J137" t="n">
         <v>1</v>
@@ -7720,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="N137" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O137" t="n">
         <v>0</v>
@@ -7729,36 +7721,36 @@
         <v>0</v>
       </c>
       <c r="Q137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B138" t="n">
-        <v>170.3000030517578</v>
+        <v>161.4700012207031</v>
       </c>
       <c r="C138" t="n">
-        <v>177.6999969482422</v>
+        <v>183.3999938964844</v>
       </c>
       <c r="D138" t="n">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="E138" t="n">
-        <v>146.9900054931641</v>
+        <v>173.0399932861328</v>
       </c>
       <c r="F138" t="n">
-        <v>143.0382385253906</v>
+        <v>168.3878936767578</v>
       </c>
       <c r="G138" t="n">
-        <v>1226505</v>
+        <v>6233160</v>
       </c>
       <c r="H138" t="n">
         <v>2022</v>
       </c>
       <c r="I138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J138" t="n">
         <v>1</v>
@@ -7773,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="N138" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O138" t="n">
         <v>0</v>
@@ -7782,36 +7774,36 @@
         <v>0</v>
       </c>
       <c r="Q138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B139" t="n">
+        <v>170.3000030517578</v>
+      </c>
+      <c r="C139" t="n">
+        <v>177.6999969482422</v>
+      </c>
+      <c r="D139" t="n">
+        <v>138</v>
+      </c>
+      <c r="E139" t="n">
         <v>146.9900054931641</v>
       </c>
-      <c r="C139" t="n">
-        <v>157.6000061035156</v>
-      </c>
-      <c r="D139" t="n">
-        <v>135.2200012207031</v>
-      </c>
-      <c r="E139" t="n">
-        <v>155.6499938964844</v>
-      </c>
       <c r="F139" t="n">
-        <v>151.4654083251953</v>
+        <v>143.0382385253906</v>
       </c>
       <c r="G139" t="n">
-        <v>2417795</v>
+        <v>1226505</v>
       </c>
       <c r="H139" t="n">
         <v>2022</v>
       </c>
       <c r="I139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J139" t="n">
         <v>1</v>
@@ -7826,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="N139" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O139" t="n">
         <v>0</v>
@@ -7835,36 +7827,36 @@
         <v>0</v>
       </c>
       <c r="Q139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B140" t="n">
+        <v>146.9900054931641</v>
+      </c>
+      <c r="C140" t="n">
+        <v>157.6000061035156</v>
+      </c>
+      <c r="D140" t="n">
+        <v>135.2200012207031</v>
+      </c>
+      <c r="E140" t="n">
         <v>155.6499938964844</v>
       </c>
-      <c r="C140" t="n">
-        <v>168.7400054931641</v>
-      </c>
-      <c r="D140" t="n">
-        <v>150.7799987792969</v>
-      </c>
-      <c r="E140" t="n">
-        <v>151.5899963378906</v>
-      </c>
       <c r="F140" t="n">
-        <v>147.5145721435547</v>
+        <v>151.4654083251953</v>
       </c>
       <c r="G140" t="n">
-        <v>1430285</v>
+        <v>2417795</v>
       </c>
       <c r="H140" t="n">
         <v>2022</v>
       </c>
       <c r="I140" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J140" t="n">
         <v>1</v>
@@ -7879,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="N140" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O140" t="n">
         <v>0</v>
@@ -7893,31 +7885,31 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B141" t="n">
+        <v>155.6499938964844</v>
+      </c>
+      <c r="C141" t="n">
+        <v>168.7400054931641</v>
+      </c>
+      <c r="D141" t="n">
+        <v>150.7799987792969</v>
+      </c>
+      <c r="E141" t="n">
         <v>151.5899963378906</v>
       </c>
-      <c r="C141" t="n">
-        <v>169.75</v>
-      </c>
-      <c r="D141" t="n">
-        <v>138.5899963378906</v>
-      </c>
-      <c r="E141" t="n">
-        <v>160.4900054931641</v>
-      </c>
       <c r="F141" t="n">
-        <v>156.1753082275391</v>
+        <v>147.5145721435547</v>
       </c>
       <c r="G141" t="n">
-        <v>3436110</v>
+        <v>1430285</v>
       </c>
       <c r="H141" t="n">
         <v>2022</v>
       </c>
       <c r="I141" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J141" t="n">
         <v>1</v>
@@ -7932,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="N141" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O141" t="n">
         <v>0</v>
@@ -7946,31 +7938,31 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B142" t="n">
+        <v>151.5899963378906</v>
+      </c>
+      <c r="C142" t="n">
+        <v>169.75</v>
+      </c>
+      <c r="D142" t="n">
+        <v>138.5899963378906</v>
+      </c>
+      <c r="E142" t="n">
         <v>160.4900054931641</v>
       </c>
-      <c r="C142" t="n">
-        <v>161.9299926757812</v>
-      </c>
-      <c r="D142" t="n">
-        <v>130</v>
-      </c>
-      <c r="E142" t="n">
-        <v>144.4700012207031</v>
-      </c>
       <c r="F142" t="n">
-        <v>140.5859832763672</v>
+        <v>156.1753082275391</v>
       </c>
       <c r="G142" t="n">
-        <v>718675</v>
+        <v>3436110</v>
       </c>
       <c r="H142" t="n">
         <v>2022</v>
       </c>
       <c r="I142" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J142" t="n">
         <v>1</v>
@@ -7985,10 +7977,10 @@
         <v>0</v>
       </c>
       <c r="N142" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P142" t="n">
         <v>0</v>
@@ -7999,31 +7991,31 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B143" t="n">
-        <v>145.9100036621094</v>
+        <v>160.4900054931641</v>
       </c>
       <c r="C143" t="n">
-        <v>146.7200012207031</v>
+        <v>161.9299926757812</v>
       </c>
       <c r="D143" t="n">
-        <v>137.2599945068359</v>
+        <v>130</v>
       </c>
       <c r="E143" t="n">
-        <v>139.8099975585938</v>
+        <v>144.4700012207031</v>
       </c>
       <c r="F143" t="n">
-        <v>136.05126953125</v>
+        <v>140.5859832763672</v>
       </c>
       <c r="G143" t="n">
-        <v>1269015</v>
+        <v>718675</v>
       </c>
       <c r="H143" t="n">
         <v>2022</v>
       </c>
       <c r="I143" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J143" t="n">
         <v>1</v>
@@ -8038,10 +8030,10 @@
         <v>0</v>
       </c>
       <c r="N143" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P143" t="n">
         <v>0</v>
@@ -8052,31 +8044,31 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B144" t="n">
-        <v>141</v>
+        <v>145.9100036621094</v>
       </c>
       <c r="C144" t="n">
-        <v>165.2599945068359</v>
+        <v>146.7200012207031</v>
       </c>
       <c r="D144" t="n">
-        <v>137.1600036621094</v>
+        <v>137.2599945068359</v>
       </c>
       <c r="E144" t="n">
-        <v>145.1100006103516</v>
+        <v>139.8099975585938</v>
       </c>
       <c r="F144" t="n">
-        <v>141.2087860107422</v>
+        <v>136.05126953125</v>
       </c>
       <c r="G144" t="n">
-        <v>3453235</v>
+        <v>1269015</v>
       </c>
       <c r="H144" t="n">
         <v>2022</v>
       </c>
       <c r="I144" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J144" t="n">
         <v>1</v>
@@ -8091,7 +8083,7 @@
         <v>0</v>
       </c>
       <c r="N144" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O144" t="n">
         <v>0</v>
@@ -8105,31 +8097,31 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B145" t="n">
-        <v>147.6000061035156</v>
+        <v>141</v>
       </c>
       <c r="C145" t="n">
-        <v>155.2200012207031</v>
+        <v>165.2599945068359</v>
       </c>
       <c r="D145" t="n">
-        <v>136.2200012207031</v>
+        <v>137.1600036621094</v>
       </c>
       <c r="E145" t="n">
-        <v>146.7200012207031</v>
+        <v>145.1100006103516</v>
       </c>
       <c r="F145" t="n">
-        <v>143.5634918212891</v>
+        <v>141.2087860107422</v>
       </c>
       <c r="G145" t="n">
-        <v>1885940</v>
+        <v>3453235</v>
       </c>
       <c r="H145" t="n">
         <v>2022</v>
       </c>
       <c r="I145" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J145" t="n">
         <v>1</v>
@@ -8144,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="N145" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O145" t="n">
         <v>0</v>
@@ -8158,31 +8150,31 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B146" t="n">
-        <v>146.0700073242188</v>
+        <v>147.6000061035156</v>
       </c>
       <c r="C146" t="n">
-        <v>149</v>
+        <v>155.2200012207031</v>
       </c>
       <c r="D146" t="n">
-        <v>139.1999969482422</v>
+        <v>136.2200012207031</v>
       </c>
       <c r="E146" t="n">
-        <v>142.2299957275391</v>
+        <v>146.7200012207031</v>
       </c>
       <c r="F146" t="n">
-        <v>139.1700897216797</v>
+        <v>143.5634918212891</v>
       </c>
       <c r="G146" t="n">
-        <v>1024830</v>
+        <v>1885940</v>
       </c>
       <c r="H146" t="n">
         <v>2022</v>
       </c>
       <c r="I146" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J146" t="n">
         <v>1</v>
@@ -8197,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="N146" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O146" t="n">
         <v>0</v>
@@ -8206,36 +8198,36 @@
         <v>0</v>
       </c>
       <c r="Q146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B147" t="n">
-        <v>143</v>
+        <v>146.0700073242188</v>
       </c>
       <c r="C147" t="n">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="D147" t="n">
-        <v>140.3999938964844</v>
+        <v>139.1999969482422</v>
       </c>
       <c r="E147" t="n">
-        <v>165.6199951171875</v>
+        <v>142.2299957275391</v>
       </c>
       <c r="F147" t="n">
-        <v>162.056884765625</v>
+        <v>139.1700897216797</v>
       </c>
       <c r="G147" t="n">
-        <v>3470225</v>
+        <v>1024830</v>
       </c>
       <c r="H147" t="n">
         <v>2022</v>
       </c>
       <c r="I147" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J147" t="n">
         <v>1</v>
@@ -8250,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="N147" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O147" t="n">
         <v>0</v>
@@ -8259,36 +8251,36 @@
         <v>0</v>
       </c>
       <c r="Q147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B148" t="n">
-        <v>166.6799926757812</v>
+        <v>143</v>
       </c>
       <c r="C148" t="n">
-        <v>191.6600036621094</v>
+        <v>170</v>
       </c>
       <c r="D148" t="n">
-        <v>140.2299957275391</v>
+        <v>140.3999938964844</v>
       </c>
       <c r="E148" t="n">
-        <v>155.9900054931641</v>
+        <v>165.6199951171875</v>
       </c>
       <c r="F148" t="n">
-        <v>152.6340637207031</v>
+        <v>162.056884765625</v>
       </c>
       <c r="G148" t="n">
-        <v>3700635</v>
+        <v>3470225</v>
       </c>
       <c r="H148" t="n">
         <v>2022</v>
       </c>
       <c r="I148" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J148" t="n">
         <v>1</v>
@@ -8303,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="N148" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P148" t="n">
         <v>0</v>
@@ -8317,31 +8309,31 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B149" t="n">
-        <v>154.4400024414062</v>
+        <v>166.6799926757812</v>
       </c>
       <c r="C149" t="n">
-        <v>157.9799957275391</v>
+        <v>191.6600036621094</v>
       </c>
       <c r="D149" t="n">
-        <v>141.0399932861328</v>
+        <v>140.2299957275391</v>
       </c>
       <c r="E149" t="n">
-        <v>152.5899963378906</v>
+        <v>155.9900054931641</v>
       </c>
       <c r="F149" t="n">
-        <v>149.3072204589844</v>
+        <v>152.6340637207031</v>
       </c>
       <c r="G149" t="n">
-        <v>1874850</v>
+        <v>3700635</v>
       </c>
       <c r="H149" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J149" t="n">
         <v>1</v>
@@ -8356,10 +8348,10 @@
         <v>0</v>
       </c>
       <c r="N149" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P149" t="n">
         <v>0</v>
@@ -8370,31 +8362,31 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B150" t="n">
-        <v>154.1100006103516</v>
+        <v>154.4400024414062</v>
       </c>
       <c r="C150" t="n">
-        <v>156</v>
+        <v>157.9799957275391</v>
       </c>
       <c r="D150" t="n">
-        <v>144.8099975585938</v>
+        <v>141.0399932861328</v>
       </c>
       <c r="E150" t="n">
-        <v>146.25</v>
+        <v>152.5899963378906</v>
       </c>
       <c r="F150" t="n">
-        <v>143.1036071777344</v>
+        <v>149.3072204589844</v>
       </c>
       <c r="G150" t="n">
-        <v>827175</v>
+        <v>1874850</v>
       </c>
       <c r="H150" t="n">
         <v>2023</v>
       </c>
       <c r="I150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J150" t="n">
         <v>1</v>
@@ -8409,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="N150" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O150" t="n">
         <v>0</v>
@@ -8423,31 +8415,31 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B151" t="n">
-        <v>147.1699981689453</v>
+        <v>154.1100006103516</v>
       </c>
       <c r="C151" t="n">
-        <v>152.5899963378906</v>
+        <v>156</v>
       </c>
       <c r="D151" t="n">
-        <v>133.4600067138672</v>
+        <v>144.8099975585938</v>
       </c>
       <c r="E151" t="n">
-        <v>148.7599945068359</v>
+        <v>146.25</v>
       </c>
       <c r="F151" t="n">
-        <v>145.5596160888672</v>
+        <v>143.1036071777344</v>
       </c>
       <c r="G151" t="n">
-        <v>1197825</v>
+        <v>827175</v>
       </c>
       <c r="H151" t="n">
         <v>2023</v>
       </c>
       <c r="I151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J151" t="n">
         <v>1</v>
@@ -8462,10 +8454,10 @@
         <v>0</v>
       </c>
       <c r="N151" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P151" t="n">
         <v>0</v>
@@ -8476,31 +8468,31 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B152" t="n">
+        <v>147.1699981689453</v>
+      </c>
+      <c r="C152" t="n">
+        <v>152.5899963378906</v>
+      </c>
+      <c r="D152" t="n">
+        <v>133.4600067138672</v>
+      </c>
+      <c r="E152" t="n">
         <v>148.7599945068359</v>
       </c>
-      <c r="C152" t="n">
-        <v>156</v>
-      </c>
-      <c r="D152" t="n">
-        <v>142.3099975585938</v>
-      </c>
-      <c r="E152" t="n">
-        <v>149.2899932861328</v>
-      </c>
       <c r="F152" t="n">
-        <v>146.0782165527344</v>
+        <v>145.5596160888672</v>
       </c>
       <c r="G152" t="n">
-        <v>812720</v>
+        <v>1197825</v>
       </c>
       <c r="H152" t="n">
         <v>2023</v>
       </c>
       <c r="I152" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J152" t="n">
         <v>1</v>
@@ -8515,45 +8507,45 @@
         <v>0</v>
       </c>
       <c r="N152" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P152" t="n">
         <v>0</v>
       </c>
       <c r="Q152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B153" t="n">
+        <v>148.7599945068359</v>
+      </c>
+      <c r="C153" t="n">
+        <v>156</v>
+      </c>
+      <c r="D153" t="n">
+        <v>142.3099975585938</v>
+      </c>
+      <c r="E153" t="n">
         <v>149.2899932861328</v>
       </c>
-      <c r="C153" t="n">
-        <v>183.9900054931641</v>
-      </c>
-      <c r="D153" t="n">
-        <v>149.2899932861328</v>
-      </c>
-      <c r="E153" t="n">
-        <v>177.0299987792969</v>
-      </c>
       <c r="F153" t="n">
-        <v>173.2214202880859</v>
+        <v>146.0782165527344</v>
       </c>
       <c r="G153" t="n">
-        <v>6375055</v>
+        <v>812720</v>
       </c>
       <c r="H153" t="n">
         <v>2023</v>
       </c>
       <c r="I153" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J153" t="n">
         <v>1</v>
@@ -8568,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="N153" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O153" t="n">
         <v>0</v>
@@ -8577,36 +8569,36 @@
         <v>0</v>
       </c>
       <c r="Q153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B154" t="n">
-        <v>177.3999938964844</v>
+        <v>149.2899932861328</v>
       </c>
       <c r="C154" t="n">
-        <v>204.8000030517578</v>
+        <v>183.9900054931641</v>
       </c>
       <c r="D154" t="n">
-        <v>170.5</v>
+        <v>149.2899932861328</v>
       </c>
       <c r="E154" t="n">
-        <v>187.2400054931641</v>
+        <v>177.0299987792969</v>
       </c>
       <c r="F154" t="n">
-        <v>183.2117614746094</v>
+        <v>173.2214202880859</v>
       </c>
       <c r="G154" t="n">
-        <v>6274505</v>
+        <v>6375055</v>
       </c>
       <c r="H154" t="n">
         <v>2023</v>
       </c>
       <c r="I154" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J154" t="n">
         <v>1</v>
@@ -8621,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="N154" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O154" t="n">
         <v>0</v>
@@ -8635,31 +8627,31 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B155" t="n">
-        <v>187.6000061035156</v>
+        <v>177.3999938964844</v>
       </c>
       <c r="C155" t="n">
-        <v>228.9400024414062</v>
+        <v>204.8000030517578</v>
       </c>
       <c r="D155" t="n">
-        <v>187.6000061035156</v>
+        <v>170.5</v>
       </c>
       <c r="E155" t="n">
-        <v>219.3999938964844</v>
+        <v>187.2400054931641</v>
       </c>
       <c r="F155" t="n">
-        <v>214.6798706054688</v>
+        <v>183.2117614746094</v>
       </c>
       <c r="G155" t="n">
-        <v>10030515</v>
+        <v>6274505</v>
       </c>
       <c r="H155" t="n">
         <v>2023</v>
       </c>
       <c r="I155" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J155" t="n">
         <v>1</v>
@@ -8674,7 +8666,7 @@
         <v>0</v>
       </c>
       <c r="N155" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O155" t="n">
         <v>0</v>
@@ -8683,36 +8675,36 @@
         <v>0</v>
       </c>
       <c r="Q155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B156" t="n">
-        <v>221.6000061035156</v>
+        <v>187.6000061035156</v>
       </c>
       <c r="C156" t="n">
-        <v>232.4900054931641</v>
+        <v>228.9400024414062</v>
       </c>
       <c r="D156" t="n">
-        <v>203</v>
+        <v>187.6000061035156</v>
       </c>
       <c r="E156" t="n">
-        <v>218.5299987792969</v>
+        <v>219.3999938964844</v>
       </c>
       <c r="F156" t="n">
-        <v>213.8285980224609</v>
+        <v>214.6798706054688</v>
       </c>
       <c r="G156" t="n">
-        <v>4001030</v>
+        <v>10030515</v>
       </c>
       <c r="H156" t="n">
         <v>2023</v>
       </c>
       <c r="I156" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J156" t="n">
         <v>1</v>
@@ -8727,7 +8719,7 @@
         <v>0</v>
       </c>
       <c r="N156" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O156" t="n">
         <v>0</v>
@@ -8736,36 +8728,36 @@
         <v>0</v>
       </c>
       <c r="Q156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B157" t="n">
-        <v>220.2700042724609</v>
+        <v>221.6000061035156</v>
       </c>
       <c r="C157" t="n">
-        <v>261.9500122070312</v>
+        <v>232.4900054931641</v>
       </c>
       <c r="D157" t="n">
-        <v>207.6999969482422</v>
+        <v>203</v>
       </c>
       <c r="E157" t="n">
-        <v>209.3000030517578</v>
+        <v>218.5299987792969</v>
       </c>
       <c r="F157" t="n">
-        <v>205.7570495605469</v>
+        <v>213.8285980224609</v>
       </c>
       <c r="G157" t="n">
-        <v>5959897</v>
+        <v>4001030</v>
       </c>
       <c r="H157" t="n">
         <v>2023</v>
       </c>
       <c r="I157" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J157" t="n">
         <v>1</v>
@@ -8780,10 +8772,10 @@
         <v>0</v>
       </c>
       <c r="N157" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P157" t="n">
         <v>0</v>
@@ -8794,31 +8786,31 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B158" t="n">
+        <v>220.2700042724609</v>
+      </c>
+      <c r="C158" t="n">
+        <v>261.9500122070312</v>
+      </c>
+      <c r="D158" t="n">
+        <v>207.6999969482422</v>
+      </c>
+      <c r="E158" t="n">
         <v>209.3000030517578</v>
       </c>
-      <c r="C158" t="n">
-        <v>259.7000122070312</v>
-      </c>
-      <c r="D158" t="n">
-        <v>203.8000030517578</v>
-      </c>
-      <c r="E158" t="n">
-        <v>237.9499969482422</v>
-      </c>
       <c r="F158" t="n">
-        <v>233.9220581054688</v>
+        <v>205.7570495605469</v>
       </c>
       <c r="G158" t="n">
-        <v>6863568</v>
+        <v>5959897</v>
       </c>
       <c r="H158" t="n">
         <v>2023</v>
       </c>
       <c r="I158" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J158" t="n">
         <v>1</v>
@@ -8833,10 +8825,10 @@
         <v>0</v>
       </c>
       <c r="N158" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P158" t="n">
         <v>0</v>
@@ -8847,31 +8839,31 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B159" t="n">
-        <v>236</v>
+        <v>209.3000030517578</v>
       </c>
       <c r="C159" t="n">
-        <v>240.75</v>
+        <v>259.7000122070312</v>
       </c>
       <c r="D159" t="n">
-        <v>209.9499969482422</v>
+        <v>203.8000030517578</v>
       </c>
       <c r="E159" t="n">
-        <v>213.75</v>
+        <v>237.9499969482422</v>
       </c>
       <c r="F159" t="n">
-        <v>210.1317138671875</v>
+        <v>233.9220581054688</v>
       </c>
       <c r="G159" t="n">
-        <v>3485527</v>
+        <v>6863568</v>
       </c>
       <c r="H159" t="n">
         <v>2023</v>
       </c>
       <c r="I159" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J159" t="n">
         <v>1</v>
@@ -8886,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="N159" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O159" t="n">
         <v>0</v>
@@ -8900,31 +8892,31 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B160" t="n">
-        <v>215.6499938964844</v>
+        <v>236</v>
       </c>
       <c r="C160" t="n">
-        <v>216.5</v>
+        <v>240.75</v>
       </c>
       <c r="D160" t="n">
-        <v>195.3999938964844</v>
+        <v>209.9499969482422</v>
       </c>
       <c r="E160" t="n">
-        <v>200.1499938964844</v>
+        <v>213.75</v>
       </c>
       <c r="F160" t="n">
-        <v>200.1499938964844</v>
+        <v>210.1317138671875</v>
       </c>
       <c r="G160" t="n">
-        <v>3654873</v>
+        <v>3485527</v>
       </c>
       <c r="H160" t="n">
         <v>2023</v>
       </c>
       <c r="I160" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J160" t="n">
         <v>1</v>
@@ -8939,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="N160" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O160" t="n">
         <v>0</v>
@@ -8953,31 +8945,31 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B161" t="n">
-        <v>201.75</v>
+        <v>215.6499938964844</v>
       </c>
       <c r="C161" t="n">
-        <v>219.3999938964844</v>
+        <v>216.5</v>
       </c>
       <c r="D161" t="n">
-        <v>187.6000061035156</v>
+        <v>195.3999938964844</v>
       </c>
       <c r="E161" t="n">
-        <v>214.1000061035156</v>
+        <v>200.1499938964844</v>
       </c>
       <c r="F161" t="n">
-        <v>214.1000061035156</v>
+        <v>200.1499938964844</v>
       </c>
       <c r="G161" t="n">
-        <v>5722705</v>
+        <v>3654873</v>
       </c>
       <c r="H161" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J161" t="n">
         <v>1</v>
@@ -8992,7 +8984,7 @@
         <v>0</v>
       </c>
       <c r="N161" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O161" t="n">
         <v>0</v>
@@ -9001,89 +8993,89 @@
         <v>0</v>
       </c>
       <c r="Q161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B162" t="n">
-        <v>216.3999938964844</v>
+        <v>201.75</v>
       </c>
       <c r="C162" t="n">
-        <v>216.5</v>
+        <v>219.3999938964844</v>
       </c>
       <c r="D162" t="n">
-        <v>180.3000030517578</v>
+        <v>187.6000061035156</v>
       </c>
       <c r="E162" t="n">
-        <v>190.1999969482422</v>
+        <v>214.1000061035156</v>
       </c>
       <c r="F162" t="n">
-        <v>190.1999969482422</v>
+        <v>214.1000061035156</v>
       </c>
       <c r="G162" t="n">
-        <v>4413864</v>
+        <v>5722705</v>
       </c>
       <c r="H162" t="n">
         <v>2024</v>
       </c>
       <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q162" t="n">
         <v>2</v>
-      </c>
-      <c r="J162" t="n">
-        <v>1</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0</v>
-      </c>
-      <c r="L162" t="n">
-        <v>0</v>
-      </c>
-      <c r="M162" t="n">
-        <v>0</v>
-      </c>
-      <c r="N162" t="n">
-        <v>5</v>
-      </c>
-      <c r="O162" t="n">
-        <v>0</v>
-      </c>
-      <c r="P162" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q162" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B163" t="n">
-        <v>192.8500061035156</v>
+        <v>216.3999938964844</v>
       </c>
       <c r="C163" t="n">
-        <v>225.3999938964844</v>
+        <v>216.5</v>
       </c>
       <c r="D163" t="n">
-        <v>179</v>
+        <v>180.3000030517578</v>
       </c>
       <c r="E163" t="n">
-        <v>184.9499969482422</v>
+        <v>190.1999969482422</v>
       </c>
       <c r="F163" t="n">
-        <v>184.9499969482422</v>
+        <v>190.1999969482422</v>
       </c>
       <c r="G163" t="n">
-        <v>8303715</v>
+        <v>4413864</v>
       </c>
       <c r="H163" t="n">
         <v>2024</v>
       </c>
       <c r="I163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J163" t="n">
         <v>1</v>
@@ -9098,10 +9090,10 @@
         <v>0</v>
       </c>
       <c r="N163" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P163" t="n">
         <v>0</v>
@@ -9112,31 +9104,31 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B164" t="n">
-        <v>185.3000030517578</v>
+        <v>192.8500061035156</v>
       </c>
       <c r="C164" t="n">
-        <v>244.5500030517578</v>
+        <v>225.3999938964844</v>
       </c>
       <c r="D164" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E164" t="n">
-        <v>227.3000030517578</v>
+        <v>184.9499969482422</v>
       </c>
       <c r="F164" t="n">
-        <v>227.3000030517578</v>
+        <v>184.9499969482422</v>
       </c>
       <c r="G164" t="n">
-        <v>7687304</v>
+        <v>8303715</v>
       </c>
       <c r="H164" t="n">
         <v>2024</v>
       </c>
       <c r="I164" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J164" t="n">
         <v>1</v>
@@ -9151,10 +9143,10 @@
         <v>0</v>
       </c>
       <c r="N164" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P164" t="n">
         <v>0</v>
@@ -9165,31 +9157,31 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B165" t="n">
+        <v>185.3000030517578</v>
+      </c>
+      <c r="C165" t="n">
+        <v>244.5500030517578</v>
+      </c>
+      <c r="D165" t="n">
+        <v>182</v>
+      </c>
+      <c r="E165" t="n">
         <v>227.3000030517578</v>
       </c>
-      <c r="C165" t="n">
-        <v>242</v>
-      </c>
-      <c r="D165" t="n">
-        <v>209.25</v>
-      </c>
-      <c r="E165" t="n">
-        <v>214.3999938964844</v>
-      </c>
       <c r="F165" t="n">
-        <v>214.3999938964844</v>
+        <v>227.3000030517578</v>
       </c>
       <c r="G165" t="n">
-        <v>6195291</v>
+        <v>7687304</v>
       </c>
       <c r="H165" t="n">
         <v>2024</v>
       </c>
       <c r="I165" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J165" t="n">
         <v>1</v>
@@ -9204,7 +9196,7 @@
         <v>0</v>
       </c>
       <c r="N165" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O165" t="n">
         <v>0</v>
@@ -9218,56 +9210,514 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B166" t="n">
-        <v>218.8999938964844</v>
+        <v>227.3000030517578</v>
       </c>
       <c r="C166" t="n">
-        <v>227.9499969482422</v>
+        <v>242</v>
       </c>
       <c r="D166" t="n">
-        <v>197.0500030517578</v>
+        <v>209.25</v>
       </c>
       <c r="E166" t="n">
-        <v>226.5099945068359</v>
+        <v>214.3999938964844</v>
       </c>
       <c r="F166" t="n">
-        <v>226.5099945068359</v>
+        <v>214.3999938964844</v>
       </c>
       <c r="G166" t="n">
-        <v>1360775</v>
+        <v>6195291</v>
       </c>
       <c r="H166" t="n">
         <v>2024</v>
       </c>
       <c r="I166" t="n">
+        <v>5</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>18</v>
+      </c>
+      <c r="O166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B167" t="n">
+        <v>218.8999938964844</v>
+      </c>
+      <c r="C167" t="n">
+        <v>227.9499969482422</v>
+      </c>
+      <c r="D167" t="n">
+        <v>197.0500030517578</v>
+      </c>
+      <c r="E167" t="n">
+        <v>226.5099945068359</v>
+      </c>
+      <c r="F167" t="n">
+        <v>226.5099945068359</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1360775</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I167" t="n">
         <v>6</v>
       </c>
-      <c r="J166" t="n">
-        <v>1</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0</v>
-      </c>
-      <c r="L166" t="n">
-        <v>0</v>
-      </c>
-      <c r="M166" t="n">
-        <v>0</v>
-      </c>
-      <c r="N166" t="n">
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
         <v>22</v>
       </c>
-      <c r="O166" t="n">
-        <v>0</v>
-      </c>
-      <c r="P166" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q166" t="n">
-        <v>0</v>
-      </c>
+      <c r="O167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B168" t="n">
+        <v>244.2253424385954</v>
+      </c>
+      <c r="C168" t="n">
+        <v>246.0224287108068</v>
+      </c>
+      <c r="D168" t="n">
+        <v>207.6183526849309</v>
+      </c>
+      <c r="E168" t="n">
+        <v>231.7946624755859</v>
+      </c>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="n">
+        <v>5019571</v>
+      </c>
+      <c r="H168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I168" t="n">
+        <v>7</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>27</v>
+      </c>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B169" t="n">
+        <v>234.4243372005718</v>
+      </c>
+      <c r="C169" t="n">
+        <v>279.4449086241208</v>
+      </c>
+      <c r="D169" t="n">
+        <v>214.5837438151267</v>
+      </c>
+      <c r="E169" t="n">
+        <v>268.6563415527344</v>
+      </c>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="n">
+        <v>14560268</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I169" t="n">
+        <v>8</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>31</v>
+      </c>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B170" t="n">
+        <v>271.4607631541557</v>
+      </c>
+      <c r="C170" t="n">
+        <v>301.0020875888175</v>
+      </c>
+      <c r="D170" t="n">
+        <v>226.1507742191055</v>
+      </c>
+      <c r="E170" t="n">
+        <v>263.8758239746094</v>
+      </c>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="n">
+        <v>17760474</v>
+      </c>
+      <c r="H170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I170" t="n">
+        <v>9</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>35</v>
+      </c>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B171" t="n">
+        <v>266.4706673769732</v>
+      </c>
+      <c r="C171" t="n">
+        <v>323.8566725236997</v>
+      </c>
+      <c r="D171" t="n">
+        <v>251.6002130042802</v>
+      </c>
+      <c r="E171" t="n">
+        <v>298.2076110839844</v>
+      </c>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="n">
+        <v>18496759</v>
+      </c>
+      <c r="H171" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I171" t="n">
+        <v>10</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>40</v>
+      </c>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B172" t="n">
+        <v>301.4012793255216</v>
+      </c>
+      <c r="C172" t="n">
+        <v>339.3259436115144</v>
+      </c>
+      <c r="D172" t="n">
+        <v>272.957781111027</v>
+      </c>
+      <c r="E172" t="n">
+        <v>331.9905090332031</v>
+      </c>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="n">
+        <v>6142006</v>
+      </c>
+      <c r="H172" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I172" t="n">
+        <v>11</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>44</v>
+      </c>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B173" t="n">
+        <v>329.0499877929688</v>
+      </c>
+      <c r="C173" t="n">
+        <v>353.9500122070312</v>
+      </c>
+      <c r="D173" t="n">
+        <v>282</v>
+      </c>
+      <c r="E173" t="n">
+        <v>295.9500122070312</v>
+      </c>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="n">
+        <v>5059486</v>
+      </c>
+      <c r="H173" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I173" t="n">
+        <v>12</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>48</v>
+      </c>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B174" t="n">
+        <v>296.5</v>
+      </c>
+      <c r="C174" t="n">
+        <v>300.2000122070312</v>
+      </c>
+      <c r="D174" t="n">
+        <v>241.3000030517578</v>
+      </c>
+      <c r="E174" t="n">
+        <v>270.5</v>
+      </c>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="n">
+        <v>3729319</v>
+      </c>
+      <c r="H174" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>1</v>
+      </c>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B175" t="n">
+        <v>271.2999877929688</v>
+      </c>
+      <c r="C175" t="n">
+        <v>284</v>
+      </c>
+      <c r="D175" t="n">
+        <v>216.75</v>
+      </c>
+      <c r="E175" t="n">
+        <v>235.25</v>
+      </c>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="n">
+        <v>2623588</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I175" t="n">
+        <v>2</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>5</v>
+      </c>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B176" t="n">
+        <v>235</v>
+      </c>
+      <c r="C176" t="n">
+        <v>260.010009765625</v>
+      </c>
+      <c r="D176" t="n">
+        <v>216.9100036621094</v>
+      </c>
+      <c r="E176" t="n">
+        <v>235.3800048828125</v>
+      </c>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="n">
+        <v>2312454</v>
+      </c>
+      <c r="H176" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I176" t="n">
+        <v>3</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>9</v>
+      </c>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
